--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32107-d217223-Reviews-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>161</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Brea.h82248.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="781">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2277 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r577265465-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>32107</t>
+  </si>
+  <si>
+    <t>217223</t>
+  </si>
+  <si>
+    <t>577265465</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was very pleasant. Hotel was not. </t>
+  </si>
+  <si>
+    <t>Okay, it was not totally disappointing  but it was serviceable at best.  Room looks like they did a minor remodel (paint and carpet) but the kitchenette just looks old as does the bathroom. There were no plates or pans for me to cook.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Okay, it was not totally disappointing  but it was serviceable at best.  Room looks like they did a minor remodel (paint and carpet) but the kitchenette just looks old as does the bathroom. There were no plates or pans for me to cook.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r560365969-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>560365969</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay America Bio Hazard - Mold all over bathroom</t>
+  </si>
+  <si>
+    <t>The staff were nice.  But... there was mold in the grout in the shower, on top of the shower tile and in the toilet bowl.  There were hairs from someone in the bathtub.  Had to request plates, glasses and flat wear that were delivered in a rolling dirty linen basket.  The rug was filthy with spots all over it.  the room I requested was supposed to have been non-smoking... the room reeked of smoke.  I took pictures of the mold in shower and toilet and of the hairs in the bath tub.  My belief is that the room is a bio-hazard, dangerous to guests and staff alike.  Strongly recommend avoiding this hotel until all rooms have been declared safe by the appropriate government agency.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>The staff were nice.  But... there was mold in the grout in the shower, on top of the shower tile and in the toilet bowl.  There were hairs from someone in the bathtub.  Had to request plates, glasses and flat wear that were delivered in a rolling dirty linen basket.  The rug was filthy with spots all over it.  the room I requested was supposed to have been non-smoking... the room reeked of smoke.  I took pictures of the mold in shower and toilet and of the hairs in the bath tub.  My belief is that the room is a bio-hazard, dangerous to guests and staff alike.  Strongly recommend avoiding this hotel until all rooms have been declared safe by the appropriate government agency.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r559661573-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>559661573</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>So disappointed</t>
+  </si>
+  <si>
+    <t>WiFi didn’t work. Informed staff, they said it was a setting problem and then ignored me when I told them it still wasn’t working. “Breakfast included” is a granola bar. AC was loud. Wish I stayed elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>WiFi didn’t work. Informed staff, they said it was a setting problem and then ignored me when I told them it still wasn’t working. “Breakfast included” is a granola bar. AC was loud. Wish I stayed elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r548550737-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>548550737</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Clean and Safe</t>
+  </si>
+  <si>
+    <t>Brae is a great location, near shopping and clean and safe. I can here due to relocation and job searching and took the time to stay 2 weeks. It felt like a home. I would come again. Staff are friendly and area is near business park off roads to do some walking for exercise. It also has an exercise room!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Brae is a great location, near shopping and clean and safe. I can here due to relocation and job searching and took the time to stay 2 weeks. It felt like a home. I would come again. Staff are friendly and area is near business park off roads to do some walking for exercise. It also has an exercise room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r548155025-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>548155025</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Very bad, experience, customer service, housekeeping</t>
+  </si>
+  <si>
+    <t>Don't check in here EVER, obviously they do not check on the staff they hire to run their business. They weren't friendly when we checked in, the room was NOT ready when they said it was. Housekeeping  the bed sheets were not clean, had to be replaced. Please stay somewhere else. You will be glad you did.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Don't check in here EVER, obviously they do not check on the staff they hire to run their business. They weren't friendly when we checked in, the room was NOT ready when they said it was. Housekeeping  the bed sheets were not clean, had to be replaced. Please stay somewhere else. You will be glad you did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r547124314-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>547124314</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Hotel Stay feed back</t>
+  </si>
+  <si>
+    <t>Lot of nocie coming forom the nex tdoor  The rest room does not have cap to the tub  CUrtain are not good  dog barking from next door  TV noice audiblefrom next room  Request for  minimum utewncils and bowlsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Lot of nocie coming forom the nex tdoor  The rest room does not have cap to the tub  CUrtain are not good  dog barking from next door  TV noice audiblefrom next room  Request for  minimum utewncils and bowlsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r535157659-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>535157659</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>Had to stay here for a week and it was disgusting. The bathroom was nasty and there was dust and hair everywhere. The sheets were dirty and full of hair so i called to get new ones. The front desk made me walk to then, which is inconvenient because i had to bring my 2 month old and 5 year old. The stove is only a two top, no dishwasher or oven. Small sink. Lighting is bad and you feel like your in a motel. Parking is free. They serve a quick grab and go breakfast that i did not experience. Going here you save a bit, but i would rather pay a little extra for a clean place. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Had to stay here for a week and it was disgusting. The bathroom was nasty and there was dust and hair everywhere. The sheets were dirty and full of hair so i called to get new ones. The front desk made me walk to then, which is inconvenient because i had to bring my 2 month old and 5 year old. The stove is only a two top, no dishwasher or oven. Small sink. Lighting is bad and you feel like your in a motel. Parking is free. They serve a quick grab and go breakfast that i did not experience. Going here you save a bit, but i would rather pay a little extra for a clean place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r531826048-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>531826048</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>We stayed here out of necessity, the hotel it self is located in a well lit area, near many restaurants and stores. They also provide a very minimal kitchen and accept pets. This was the main reason for our stay. We were on the second floor and outside many of the doors were dirty dishes from previous guests that had used the kitchen. The floor was very dirty and littered with cigarette butts all around. Once in side the room, it was just ok. The bed seemed clean, but the furnishings and cardboard advertisements were dirty. The toilet had a black ring around it, and so did the shower. I COULD NOT wait to check out! We hardly slept and will NEVER stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here out of necessity, the hotel it self is located in a well lit area, near many restaurants and stores. They also provide a very minimal kitchen and accept pets. This was the main reason for our stay. We were on the second floor and outside many of the doors were dirty dishes from previous guests that had used the kitchen. The floor was very dirty and littered with cigarette butts all around. Once in side the room, it was just ok. The bed seemed clean, but the furnishings and cardboard advertisements were dirty. The toilet had a black ring around it, and so did the shower. I COULD NOT wait to check out! We hardly slept and will NEVER stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r531407161-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>531407161</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Bed had hair all over it. Bathroom was dirty. Room smelled bad. Floor was disgusting. There was dust everywhere. I will never stay here again. I was highly disappointed. We called about a broken tv and it was never fixed. Had to go get new sheets myself because they were dirty with hair and the lady was lazy. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Bed had hair all over it. Bathroom was dirty. Room smelled bad. Floor was disgusting. There was dust everywhere. I will never stay here again. I was highly disappointed. We called about a broken tv and it was never fixed. Had to go get new sheets myself because they were dirty with hair and the lady was lazy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r530189510-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>530189510</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>The booking was easy, confirmation and check in was top notch. Staff was pleasant, room was nice and clean when I got there. All-Around I had a very enjoyable and stress-free time staying with Extended Stay America... I would recommend this again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>The booking was easy, confirmation and check in was top notch. Staff was pleasant, room was nice and clean when I got there. All-Around I had a very enjoyable and stress-free time staying with Extended Stay America... I would recommend this again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r522003108-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>522003108</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>I will never stay here again</t>
+  </si>
+  <si>
+    <t>The outside of the hotel is dirty.  Cigarette butts are scattered throughout the grounds.  The bathtub had mold and rust stains.  There was a glob of dried hair on the tub wall from previous guest.  The carpet had large black stains.  This hotel was listed as a 2 1/2 star level but it is more like a 1 star motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>The outside of the hotel is dirty.  Cigarette butts are scattered throughout the grounds.  The bathtub had mold and rust stains.  There was a glob of dried hair on the tub wall from previous guest.  The carpet had large black stains.  This hotel was listed as a 2 1/2 star level but it is more like a 1 star motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r510379292-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>510379292</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Worst experience ever at a hotel</t>
+  </si>
+  <si>
+    <t>Not clean, they wouldn't clean, rude employees (not all, but some) you have to bring your dirty towels and sheets to office to exchange for clean ones and make your own bed. Hotel is in bad shape with stained carpets and pealing paint. Could not be worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Not clean, they wouldn't clean, rude employees (not all, but some) you have to bring your dirty towels and sheets to office to exchange for clean ones and make your own bed. Hotel is in bad shape with stained carpets and pealing paint. Could not be worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r507454329-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>507454329</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Cleanliness is an overall issue at this location.</t>
+  </si>
+  <si>
+    <t>The overall condition of the room was on UNACCEPTABLE .  For example the room had a major pet odor with feline hair throughout the room floor trash swept in a corner bathroom counter and tubs not clean bed Linings with visible human and feline hair on the bed padding.   Exterior portion of stairs and hallways were extremely filthy MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>The overall condition of the room was on UNACCEPTABLE .  For example the room had a major pet odor with feline hair throughout the room floor trash swept in a corner bathroom counter and tubs not clean bed Linings with visible human and feline hair on the bed padding.   Exterior portion of stairs and hallways were extremely filthy More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r506056714-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>506056714</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Would not stay here</t>
+  </si>
+  <si>
+    <t>Front desk staff was rude, rooms look and smell terrible, rooms are outdated. During our stay the fire alarms went off for hours one morning, would not stay here ever again. If you can, avoid this place at all costMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff was rude, rooms look and smell terrible, rooms are outdated. During our stay the fire alarms went off for hours one morning, would not stay here ever again. If you can, avoid this place at all costMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r505486722-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>505486722</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Tv volume set too low</t>
+  </si>
+  <si>
+    <t>Tv volume is set to low max wise so you have to choose between having air conditioner on or hear the tv because with air on you can't hear tv so I seen that as a big no no especially for the price. I can pay less for no problems at other motel or hotelsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Tv volume is set to low max wise so you have to choose between having air conditioner on or hear the tv because with air on you can't hear tv so I seen that as a big no no especially for the price. I can pay less for no problems at other motel or hotelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r503517728-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>503517728</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel i have been to in my life</t>
+  </si>
+  <si>
+    <t>The room had broken cabinet door just hanging sideways, shower had very visible mildew between tiles, missing hair dryer with its holder still attached to the wall. Few guests with pitbuls and other dogs (scared us in the reception room). The front desk clerk also acted as the room service and we did not see any other people working there. We would have moved but it was late at night. Will never stay in this hellhole again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>The room had broken cabinet door just hanging sideways, shower had very visible mildew between tiles, missing hair dryer with its holder still attached to the wall. Few guests with pitbuls and other dogs (scared us in the reception room). The front desk clerk also acted as the room service and we did not see any other people working there. We would have moved but it was late at night. Will never stay in this hellhole again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r503031188-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>503031188</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Not that great</t>
+  </si>
+  <si>
+    <t>Checked in for one night . It's convenient for near buy business. No kitchen utensils we're available , not even single tumbler. Some strange noice was coming trough the roof. The room I was in was not in great shape was giving feeling like cheap motel. Fridge was clean .breakfast was as usual muffins and some granola bars with tea and coffee. Over all in comparison to other extended stays this one was less than  averageMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Checked in for one night . It's convenient for near buy business. No kitchen utensils we're available , not even single tumbler. Some strange noice was coming trough the roof. The room I was in was not in great shape was giving feeling like cheap motel. Fridge was clean .breakfast was as usual muffins and some granola bars with tea and coffee. Over all in comparison to other extended stays this one was less than  averageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r502600865-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>502600865</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Most horrible experience in my 20 yrs of vacationing</t>
+  </si>
+  <si>
+    <t>Just plain horrible!!! Rooms were smoke filled although i asked for non smoking- child has asthma so this  was very important- our tub was dirty and the acrylic had been peeled away showing the metal - I was truly disgusted! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Just plain horrible!!! Rooms were smoke filled although i asked for non smoking- child has asthma so this  was very important- our tub was dirty and the acrylic had been peeled away showing the metal - I was truly disgusted! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r501058067-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>501058067</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>This property is disgusting.  It's dirty, smells like smoke and homeless and drug dealers live in the property.</t>
+  </si>
+  <si>
+    <t>Don't ever stay in this property.  It's disgusting!!! Homeless people and drug addicts live in the property. Everything was broken in our room and the homeless guy staying in the room next door was smoking all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Don't ever stay in this property.  It's disgusting!!! Homeless people and drug addicts live in the property. Everything was broken in our room and the homeless guy staying in the room next door was smoking all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r498441853-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>498441853</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>Location was safe and perfect for me - 5 minutes from where i needed to be. Parking was easy and at the corner so getting in and out of the lot was easy. Room was good size and reasonably clean. Price was cheap and last minute booking too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Location was safe and perfect for me - 5 minutes from where i needed to be. Parking was easy and at the corner so getting in and out of the lot was easy. Room was good size and reasonably clean. Price was cheap and last minute booking too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r497722748-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>497722748</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>This place is a disaster! Room is dirty, toilet dirty, kitchen and microwave dirty.I checked out the next day as the toilet was clogged and smelling all night long. The bed was hard as a stone, sheets are dirty, not fresher.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>This place is a disaster! Room is dirty, toilet dirty, kitchen and microwave dirty.I checked out the next day as the toilet was clogged and smelling all night long. The bed was hard as a stone, sheets are dirty, not fresher.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r490537371-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>490537371</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The room I staid seem not to ever been updated or worked on. Was very dusty, towel rack very rusty. When I asked if there was a different room perhaps in better condition, I was told all the rooms were in the same condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>The room I staid seem not to ever been updated or worked on. Was very dusty, towel rack very rusty. When I asked if there was a different room perhaps in better condition, I was told all the rooms were in the same condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r484793674-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>484793674</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>The Health Department should be called</t>
+  </si>
+  <si>
+    <t>On prior occasions, we stayed at the Chase Hotel which is next door, and it was really nice.  Couldn't get a room there so we booked at this hotel.  The outside looked presentable.  We were given a second story room and along the wall and in a corner were rodent droppings!  Housekeeping was called and she shrugged her shoulders.  The manager wasn't around and the front staff clerk was clueless about what to do.  Never offered a refund.  Never offered another room.  We ran as fast as we could.  Terrible place.VanessaMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>On prior occasions, we stayed at the Chase Hotel which is next door, and it was really nice.  Couldn't get a room there so we booked at this hotel.  The outside looked presentable.  We were given a second story room and along the wall and in a corner were rodent droppings!  Housekeeping was called and she shrugged her shoulders.  The manager wasn't around and the front staff clerk was clueless about what to do.  Never offered a refund.  Never offered another room.  We ran as fast as we could.  Terrible place.VanessaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r482632164-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>482632164</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stay here </t>
+  </si>
+  <si>
+    <t>Needless to say, we only live a few miles away, but stayed a couple nights for our Son's wedding.   This hotel should be shut down and rehabilitated before they book anymore guests.   Gurgling bathtub with water and debris and a sewer stench, the kitchen is a fire hazard.  The burners were old and rusted.  The counter top was peeling and sharp.  We expected a lot more considering the location.DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Needless to say, we only live a few miles away, but stayed a couple nights for our Son's wedding.   This hotel should be shut down and rehabilitated before they book anymore guests.   Gurgling bathtub with water and debris and a sewer stench, the kitchen is a fire hazard.  The burners were old and rusted.  The counter top was peeling and sharp.  We expected a lot more considering the location.DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r477099009-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>477099009</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Room was filthy</t>
+  </si>
+  <si>
+    <t>Our room was extremely dirty. My socks were black from walking on the floor. Both the tub and the kitchen sink had black filth in them. The walls look like they have never been wiped down. There was an inch of dirt around the toilet area. We stayed for four nights and our room was never cleaned, no fresh towels were given.  When I called the front desk for clean towels, they brought two towels, no wash cloths or hand towels. The TV is bolted down so it can not be moved to a location on the dresser where it could be viewed from the bed. Only one of us could see if when lying in the bed, it was blocked by the closet. There is not a breakfast as advertised, only muffins and coffee for a very limited time in the morning. I was charged more for a hot breakfast on the site I used, very deceptive on their part.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Our room was extremely dirty. My socks were black from walking on the floor. Both the tub and the kitchen sink had black filth in them. The walls look like they have never been wiped down. There was an inch of dirt around the toilet area. We stayed for four nights and our room was never cleaned, no fresh towels were given.  When I called the front desk for clean towels, they brought two towels, no wash cloths or hand towels. The TV is bolted down so it can not be moved to a location on the dresser where it could be viewed from the bed. Only one of us could see if when lying in the bed, it was blocked by the closet. There is not a breakfast as advertised, only muffins and coffee for a very limited time in the morning. I was charged more for a hot breakfast on the site I used, very deceptive on their part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r474212340-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>474212340</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Family member</t>
+  </si>
+  <si>
+    <t>Horrible experience. Horrible rooms. Had to make numerous requests for basic thing like toilet paper, kitchen utensils and a non working TV.. The pull out couch to make into a bed was so gross, I would not put my worst enemy to sleep on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Horrible experience. Horrible rooms. Had to make numerous requests for basic thing like toilet paper, kitchen utensils and a non working TV.. The pull out couch to make into a bed was so gross, I would not put my worst enemy to sleep on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r461045147-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>461045147</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Extended stay America - Brea</t>
+  </si>
+  <si>
+    <t>it is quite ok for staying there, the overall quality is ok, and the place is clean for accomodation. only the air conditioning is quite noisy. the services are ok, and they are friendly to customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>it is quite ok for staying there, the overall quality is ok, and the place is clean for accomodation. only the air conditioning is quite noisy. the services are ok, and they are friendly to customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r422110951-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>422110951</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Stayed here last night and thank goodness it was only for the night. At check in around 5 o'clock the trash cans by the stairs were completely full and over flowing. We had to kick things out of the way to get up the stairs, that wasn't cleaned up until this morning. Inside the room was absolutely disgusting. Stains on the sheet and on the pull out bed in the couch. There were no extra sheets or blankets. There were black stains in the shower that could have been black mold and the hair dryer was not working. The worst was there was a nail sticking out of the carpet. Not a good way to wake up with a sharp pain in your foot as soon as you stand up and also VERY DANGEROUS for my four year old niece. Now I feel disgusting before my four hour drive home.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here last night and thank goodness it was only for the night. At check in around 5 o'clock the trash cans by the stairs were completely full and over flowing. We had to kick things out of the way to get up the stairs, that wasn't cleaned up until this morning. Inside the room was absolutely disgusting. Stains on the sheet and on the pull out bed in the couch. There were no extra sheets or blankets. There were black stains in the shower that could have been black mold and the hair dryer was not working. The worst was there was a nail sticking out of the carpet. Not a good way to wake up with a sharp pain in your foot as soon as you stand up and also VERY DANGEROUS for my four year old niece. Now I feel disgusting before my four hour drive home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r417479287-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>417479287</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Hope your not expecting the Ritz</t>
+  </si>
+  <si>
+    <t>I booked through Priceline "Express Deals".  My wife has a system where she can be almost certain about which hotel is offering the rate we are about to book.  Well, knowing our possible options, we took the gamble (we lost) and booked the room.  The hotel has a very "Motel 6" feel to it.  It does have a small kitchenette, but is cheaply put together.  The cabinets were all white and chewed / marred up on the ends.  The Fridge was noisy and the Microwave (a counter-top model) was installed as though it were a "space-saver" model (drilled right through the top of the microwave into the hanging cabinet.
+The whole room was an interesting experiment in decent quality married with cheap left overs.  The bathroom counter was granite (though thin) and set on those same cheap, white cabinets.  The counter was low on one side, or the back-splash was not installed right. There was a 3/8 inch gap between the counter and the splash (3/16 of which was filled with caulk).  The toilet had a front mounted flush lever, but it was a replacement for the side-mounted lever, which was no longer installed.  To address the change in tank, they filled the side-mount hole with some red epoxy or something.  There were wood-look floors in the bathroom and kitchenette, and what probably was nice carpet when it was installed.
+The room did not give the appearance of being clean...I booked through Priceline "Express Deals".  My wife has a system where she can be almost certain about which hotel is offering the rate we are about to book.  Well, knowing our possible options, we took the gamble (we lost) and booked the room.  The hotel has a very "Motel 6" feel to it.  It does have a small kitchenette, but is cheaply put together.  The cabinets were all white and chewed / marred up on the ends.  The Fridge was noisy and the Microwave (a counter-top model) was installed as though it were a "space-saver" model (drilled right through the top of the microwave into the hanging cabinet.The whole room was an interesting experiment in decent quality married with cheap left overs.  The bathroom counter was granite (though thin) and set on those same cheap, white cabinets.  The counter was low on one side, or the back-splash was not installed right. There was a 3/8 inch gap between the counter and the splash (3/16 of which was filled with caulk).  The toilet had a front mounted flush lever, but it was a replacement for the side-mounted lever, which was no longer installed.  To address the change in tank, they filled the side-mount hole with some red epoxy or something.  There were wood-look floors in the bathroom and kitchenette, and what probably was nice carpet when it was installed.The room did not give the appearance of being clean (so much so that the only time I walked on the carpet socks was when I was on my way to take a shower (then I made sure my new socks and shoe were in the bathroom with me.  We ended up in a king / sleeper sofa room, and the front desk advised that there weren't any sheets on the sofa sleeper, but that she would bring them by in a bit.  As we prepped the room for sleeping, we pulled the sofa-bed out and found the mattress to be dingy and stained.As has been said previously, the pillows are uncomfortable and sparse.  The towels are small and rough.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I booked through Priceline "Express Deals".  My wife has a system where she can be almost certain about which hotel is offering the rate we are about to book.  Well, knowing our possible options, we took the gamble (we lost) and booked the room.  The hotel has a very "Motel 6" feel to it.  It does have a small kitchenette, but is cheaply put together.  The cabinets were all white and chewed / marred up on the ends.  The Fridge was noisy and the Microwave (a counter-top model) was installed as though it were a "space-saver" model (drilled right through the top of the microwave into the hanging cabinet.
+The whole room was an interesting experiment in decent quality married with cheap left overs.  The bathroom counter was granite (though thin) and set on those same cheap, white cabinets.  The counter was low on one side, or the back-splash was not installed right. There was a 3/8 inch gap between the counter and the splash (3/16 of which was filled with caulk).  The toilet had a front mounted flush lever, but it was a replacement for the side-mounted lever, which was no longer installed.  To address the change in tank, they filled the side-mount hole with some red epoxy or something.  There were wood-look floors in the bathroom and kitchenette, and what probably was nice carpet when it was installed.
+The room did not give the appearance of being clean...I booked through Priceline "Express Deals".  My wife has a system where she can be almost certain about which hotel is offering the rate we are about to book.  Well, knowing our possible options, we took the gamble (we lost) and booked the room.  The hotel has a very "Motel 6" feel to it.  It does have a small kitchenette, but is cheaply put together.  The cabinets were all white and chewed / marred up on the ends.  The Fridge was noisy and the Microwave (a counter-top model) was installed as though it were a "space-saver" model (drilled right through the top of the microwave into the hanging cabinet.The whole room was an interesting experiment in decent quality married with cheap left overs.  The bathroom counter was granite (though thin) and set on those same cheap, white cabinets.  The counter was low on one side, or the back-splash was not installed right. There was a 3/8 inch gap between the counter and the splash (3/16 of which was filled with caulk).  The toilet had a front mounted flush lever, but it was a replacement for the side-mounted lever, which was no longer installed.  To address the change in tank, they filled the side-mount hole with some red epoxy or something.  There were wood-look floors in the bathroom and kitchenette, and what probably was nice carpet when it was installed.The room did not give the appearance of being clean (so much so that the only time I walked on the carpet socks was when I was on my way to take a shower (then I made sure my new socks and shoe were in the bathroom with me.  We ended up in a king / sleeper sofa room, and the front desk advised that there weren't any sheets on the sofa sleeper, but that she would bring them by in a bit.  As we prepped the room for sleeping, we pulled the sofa-bed out and found the mattress to be dingy and stained.As has been said previously, the pillows are uncomfortable and sparse.  The towels are small and rough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r416825554-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>416825554</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Average Extened stay hotel</t>
+  </si>
+  <si>
+    <t>Bring extra pillows and bigger towels!!When in the area don't pay the daily rate, always check Priceline.  The towels are small and pillows are uncomfortable. Only three for one bed. This was a budget property before they changed the name.  Overall it's a great for a quick stopover.  Has a kitchen but you now need to pay for anything you need in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Bring extra pillows and bigger towels!!When in the area don't pay the daily rate, always check Priceline.  The towels are small and pillows are uncomfortable. Only three for one bed. This was a budget property before they changed the name.  Overall it's a great for a quick stopover.  Has a kitchen but you now need to pay for anything you need in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r385069905-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>385069905</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Not really for business travelers -- You get what you pay for</t>
+  </si>
+  <si>
+    <t>I stayed here one night for a business trip, and the rate was quite low.  The rooms open on to an exterior hall/balcony and the place is best described as a motel.  The rooms were small, bare bones and have seen much better days.  Although not dirty, the room was kind of dingy.  The sheets, towels, amenities were definitely of a lower tier.  No desk or task light for getting work done.  Little things signaled a lack of care or upkeep.  The hinges on the refrigerator door had not been swapped to the opposite side so that the only way to get into the fridge was to reach over the open door (a small eating bar blocked access from the front).  The cabinet doors wouldn't close completely.  This is just a place to bed down for the night.  On the plus side, the guys at the desk were very friendly and efficient.  Jared at the front desk was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here one night for a business trip, and the rate was quite low.  The rooms open on to an exterior hall/balcony and the place is best described as a motel.  The rooms were small, bare bones and have seen much better days.  Although not dirty, the room was kind of dingy.  The sheets, towels, amenities were definitely of a lower tier.  No desk or task light for getting work done.  Little things signaled a lack of care or upkeep.  The hinges on the refrigerator door had not been swapped to the opposite side so that the only way to get into the fridge was to reach over the open door (a small eating bar blocked access from the front).  The cabinet doors wouldn't close completely.  This is just a place to bed down for the night.  On the plus side, the guys at the desk were very friendly and efficient.  Jared at the front desk was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r378856594-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>378856594</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Good staff, incredibly gross hotel</t>
+  </si>
+  <si>
+    <t>This hotel was one of the dirtiest places I have ever stayed.  The carpet was stained, the room smelled awful, the towels had stains, there were hairballs on the towels, the floor and cabinets were falling apart.  Our bed blanket had cigarette burns on it.  You could not even walk on the carpet without shoes it was so gross.  There was un-vacuumed junk on the floor when we first checked in.  It almost feels like the room was not cleaned prior to our arrival.  There is breakfast but it consists of oatmeal packs, small packaged muffins, and hard oranges.  Very basic, but better than nothing I guess.  We were charged extra each night to "upgrade" to a double bed room.  All in all, the hotel is pretty gross and smells bad.  Many of the issues could only be solved by a complete overhaul of the building and rooms, but the basic housekeeping mistakes need to be fixed.  The positives are the staff.  They were very helpful for us and assisted us when we needed it.  Also, the wifi is free and the beds were fairly comfortable and pretty new which was welcome with the condition of everything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was one of the dirtiest places I have ever stayed.  The carpet was stained, the room smelled awful, the towels had stains, there were hairballs on the towels, the floor and cabinets were falling apart.  Our bed blanket had cigarette burns on it.  You could not even walk on the carpet without shoes it was so gross.  There was un-vacuumed junk on the floor when we first checked in.  It almost feels like the room was not cleaned prior to our arrival.  There is breakfast but it consists of oatmeal packs, small packaged muffins, and hard oranges.  Very basic, but better than nothing I guess.  We were charged extra each night to "upgrade" to a double bed room.  All in all, the hotel is pretty gross and smells bad.  Many of the issues could only be solved by a complete overhaul of the building and rooms, but the basic housekeeping mistakes need to be fixed.  The positives are the staff.  They were very helpful for us and assisted us when we needed it.  Also, the wifi is free and the beds were fairly comfortable and pretty new which was welcome with the condition of everything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r377055241-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>377055241</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>No.  Just no.</t>
+  </si>
+  <si>
+    <t>I had a major flood in my condo, and have had to hotel it for the last few weeks while repairs are being done.  After taking an already planned vacation to Hawaii, and staying in a Marriott hotel there, I made the mistake of choosing Extended Stay when I got home.  Someone suggested we stay here (I can't remember who, but I owe them a wedgie) because we wanted a place that we could cook in, since we were getting tired of eating out all the time.  It was one of those "it sounded like a good idea at the time" moments.
+After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything,...I had a major flood in my condo, and have had to hotel it for the last few weeks while repairs are being done.  After taking an already planned vacation to Hawaii, and staying in a Marriott hotel there, I made the mistake of choosing Extended Stay when I got home.  Someone suggested we stay here (I can't remember who, but I owe them a wedgie) because we wanted a place that we could cook in, since we were getting tired of eating out all the time.  It was one of those "it sounded like a good idea at the time" moments.After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything, just ask.  Like I have to ASK to get clean towels?On our way to the room, we passed by some sketchy looking characters hanging around.  Then I see a police car come cruising through.We get in the room, and it's reasonably clean.  The towels feel like sandpaper.  Turn over in the bed, and it sounds like bubble wrap popping.  My wife described the feel of the bed as being like a full diaper.  In an allegedly non-smoking room, there were cigarette burns on the bathroom counter.  The bathroom sink is cracked and has large chips in it.  Nice black spot in the bathtub, although it could have been (I hope it was) from my wife's feet after walking barefoot on the beach in Hawaii before we left.The next morning, I did what I should have done to start with: check the reviews on Yelp.  I found that my experience was not unique, and was likely to get worse.I had reserved a week, but already decided to check out.  Being Thursday before a long weekend, I checked one hotel to find that it was full, and was scared that we may have to stay through the weekend. I fortunately found another hotel that had a vacancy, and booked it.I got a call asking if it was a good time to bring the cooking utensils that I'd requested, and I politely declined, saying that I was checking out.  The manager called me shortly after and asked why we were checking out (as if he is really that clueless) and I told him exactly why.  Rather than offer an apology, he argued with me.My first question on leaving the room was "Is my car still there?"  It was.  And someone had used it to dispose of their coffee.Extended Stay management, don't bother responding to this review.  You say the same thing on every negative review (and there are many of them), going back at least four years, and nothing changes.  It's obvious that you just don't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>I had a major flood in my condo, and have had to hotel it for the last few weeks while repairs are being done.  After taking an already planned vacation to Hawaii, and staying in a Marriott hotel there, I made the mistake of choosing Extended Stay when I got home.  Someone suggested we stay here (I can't remember who, but I owe them a wedgie) because we wanted a place that we could cook in, since we were getting tired of eating out all the time.  It was one of those "it sounded like a good idea at the time" moments.
+After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything,...I had a major flood in my condo, and have had to hotel it for the last few weeks while repairs are being done.  After taking an already planned vacation to Hawaii, and staying in a Marriott hotel there, I made the mistake of choosing Extended Stay when I got home.  Someone suggested we stay here (I can't remember who, but I owe them a wedgie) because we wanted a place that we could cook in, since we were getting tired of eating out all the time.  It was one of those "it sounded like a good idea at the time" moments.After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything, just ask.  Like I have to ASK to get clean towels?On our way to the room, we passed by some sketchy looking characters hanging around.  Then I see a police car come cruising through.We get in the room, and it's reasonably clean.  The towels feel like sandpaper.  Turn over in the bed, and it sounds like bubble wrap popping.  My wife described the feel of the bed as being like a full diaper.  In an allegedly non-smoking room, there were cigarette burns on the bathroom counter.  The bathroom sink is cracked and has large chips in it.  Nice black spot in the bathtub, although it could have been (I hope it was) from my wife's feet after walking barefoot on the beach in Hawaii before we left.The next morning, I did what I should have done to start with: check the reviews on Yelp.  I found that my experience was not unique, and was likely to get worse.I had reserved a week, but already decided to check out.  Being Thursday before a long weekend, I checked one hotel to find that it was full, and was scared that we may have to stay through the weekend. I fortunately found another hotel that had a vacancy, and booked it.I got a call asking if it was a good time to bring the cooking utensils that I'd requested, and I politely declined, saying that I was checking out.  The manager called me shortly after and asked why we were checking out (as if he is really that clueless) and I told him exactly why.  Rather than offer an apology, he argued with me.My first question on leaving the room was "Is my car still there?"  It was.  And someone had used it to dispose of their coffee.Extended Stay management, don't bother responding to this review.  You say the same thing on every negative review (and there are many of them), going back at least four years, and nothing changes.  It's obvious that you just don't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r374095683-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>374095683</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great quality and great service</t>
+  </si>
+  <si>
+    <t>My wife and I have been here for 8 months now waiting on a condo to get built, during this time Jared the manager has been nothing but a fine gentleman always accommodating our needs, and always keeps a clean environment. Kyle and Chris r great! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I have been here for 8 months now waiting on a condo to get built, during this time Jared the manager has been nothing but a fine gentleman always accommodating our needs, and always keeps a clean environment. Kyle and Chris r great! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r374001909-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>374001909</t>
+  </si>
+  <si>
+    <t>Mr. B</t>
+  </si>
+  <si>
+    <t>My wife and i use wheelchirs and the staff is great and very helpfull. The room is very nice but could be a touch larger, it is a bit cramped for 2 wheelchairs.The restroom is large and very accessable.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>My wife and i use wheelchirs and the staff is great and very helpfull. The room is very nice but could be a touch larger, it is a bit cramped for 2 wheelchairs.The restroom is large and very accessable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r343412722-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>343412722</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Old building needs updating</t>
+  </si>
+  <si>
+    <t>Horrible, no cleaning musky smell, the only good thing is they do allow pets for a hefty price. We were here for work for six weeks and maybe we had three housekeeping cleanings. Two days before we were scheduled to leave I noticed a drip in the ceiling, I notified front staff immediately. The next evening as I was packing our things to leave the next morning, I noticed a larger leak in a different place. I notified the front desk again. We were in a first floor room with two floors above us, when my honey arrived home from work around five pm I had placed three trash cans in different locations around the room and had emptied them twice. It seems that when the upper rooms showered we were also showered with the drain water. YUCK!! As soon as he arrived and we packed the truck we checked out and drove eight hours to our next destination and then he showered and rested. Sad they could have moved us to another room when i first reported the leak. HORRIBLE!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Horrible, no cleaning musky smell, the only good thing is they do allow pets for a hefty price. We were here for work for six weeks and maybe we had three housekeeping cleanings. Two days before we were scheduled to leave I noticed a drip in the ceiling, I notified front staff immediately. The next evening as I was packing our things to leave the next morning, I noticed a larger leak in a different place. I notified the front desk again. We were in a first floor room with two floors above us, when my honey arrived home from work around five pm I had placed three trash cans in different locations around the room and had emptied them twice. It seems that when the upper rooms showered we were also showered with the drain water. YUCK!! As soon as he arrived and we packed the truck we checked out and drove eight hours to our next destination and then he showered and rested. Sad they could have moved us to another room when i first reported the leak. HORRIBLE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r309685382-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>309685382</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Two star place, met expections</t>
+  </si>
+  <si>
+    <t>We booked this place a few hours ahead of arrival on 9/11/15, no problems with that. We needed a budget place near the Nixon Presidential Library, several miles away. This is a two star place, and that is all we expected. Room 339, extended stay type kitchenette, full size refrigerator, microwave, etc, all there and working and clean. Pots and pans available upon request. The bathtub caulking had a few possible dark mold spots under the soap tray area. The bathroom fan is very noisy, there is some type of mechanical problem. The included breakfast is instant oatmeal, coffee, cupcakes, apples, and oranges, which you take to your room. We would stay there again if we were looking for that type of place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>We booked this place a few hours ahead of arrival on 9/11/15, no problems with that. We needed a budget place near the Nixon Presidential Library, several miles away. This is a two star place, and that is all we expected. Room 339, extended stay type kitchenette, full size refrigerator, microwave, etc, all there and working and clean. Pots and pans available upon request. The bathtub caulking had a few possible dark mold spots under the soap tray area. The bathroom fan is very noisy, there is some type of mechanical problem. The included breakfast is instant oatmeal, coffee, cupcakes, apples, and oranges, which you take to your room. We would stay there again if we were looking for that type of place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r307084698-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>307084698</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Kyle made my check in painless and fun.</t>
+  </si>
+  <si>
+    <t>I'm very happy with my check in process in my room at the extended stay here in Brea. Kyle was very helpful professional and easy to work with. If s working you will not be disappointed with this location. I will be referring this location to all my friends and family for years to come.Damon Block(949)633-0190MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>I'm very happy with my check in process in my room at the extended stay here in Brea. Kyle was very helpful professional and easy to work with. If s working you will not be disappointed with this location. I will be referring this location to all my friends and family for years to come.Damon Block(949)633-0190More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r301831428-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>301831428</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Not like it used to be</t>
+  </si>
+  <si>
+    <t>Used to be, cooking and eating were possible without asking for the amenities.  We didn't ask this time because we got there late.  We left early, got coffee at the office and on the road.  Could have stayed at Motel 6 with less room but they all look the same with the lights out.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r285958064-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>285958064</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Not helpful at all</t>
+  </si>
+  <si>
+    <t>My house was flooded so I had to look for a place right away.  After the movers took all my furniture, along with some important documents, I was left with no passport, and I had just lost my driver license the weekend before. I hold a photo ID from the California Judicial Council for work, which is a government issued ID, but they wouldn't take it as identification.  I explained the situation to them, but the manager was totally unreasonable.  It's a shame that in a time of distress, they didn't help out and stressed me out more than I already was with my emergency.  The lobby looked dirty, so it was actually a blessing in disguise.  I wouldn't wanna stay in an outdated, nasty place like that anyway.  Luckily, I found a Residence Inn by Marriott nearby and they were more accomodating.  GMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My house was flooded so I had to look for a place right away.  After the movers took all my furniture, along with some important documents, I was left with no passport, and I had just lost my driver license the weekend before. I hold a photo ID from the California Judicial Council for work, which is a government issued ID, but they wouldn't take it as identification.  I explained the situation to them, but the manager was totally unreasonable.  It's a shame that in a time of distress, they didn't help out and stressed me out more than I already was with my emergency.  The lobby looked dirty, so it was actually a blessing in disguise.  I wouldn't wanna stay in an outdated, nasty place like that anyway.  Luckily, I found a Residence Inn by Marriott nearby and they were more accomodating.  GMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r281009402-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>281009402</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Refund Policy</t>
+  </si>
+  <si>
+    <t>Who says it is always difficult? I had a prepaid 3 nights stay (starting June 10,2015)  and had to leave on an emergency the next morning. The asst. GM, Lupeline Tagaloa, was extremely helpful in dealing with the cancellation and refund without any questions asked or the customary 24h policy and the total amount was refunded without any penalty charge.The room was nice and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r275263006-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>275263006</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Should not be called a "hotel", but more of an emergency place to stay.</t>
+  </si>
+  <si>
+    <t>I was assigned this place via Expedia. It was 22 miles from the activity I was involved in. No maid service, no ice machine, no toilet paper unless you go to the front desk and ask for an extra roll! Same with towels; exchange wet ones for dry. Trash cans overflowing outside. Extra charges for dog ($150) and efficient internet ($14) made the total price close to what I would have paid at the Sheraton blocks from Fairplex. I was directed to the pet potty area where I exercised my dog only to find it COVERED with poop. Evidently I'm the only pet owner who picks up after her pet! ICK ICK ICK!The bathtub was extremely slippery and had no place to hang on to when getting in and out. I don't remember if I'd requested a handicap equipped room, but I was given an upstairs room with no grab bars in the tub which was a bit of a problem. The only downstairs room was "smoking".MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I was assigned this place via Expedia. It was 22 miles from the activity I was involved in. No maid service, no ice machine, no toilet paper unless you go to the front desk and ask for an extra roll! Same with towels; exchange wet ones for dry. Trash cans overflowing outside. Extra charges for dog ($150) and efficient internet ($14) made the total price close to what I would have paid at the Sheraton blocks from Fairplex. I was directed to the pet potty area where I exercised my dog only to find it COVERED with poop. Evidently I'm the only pet owner who picks up after her pet! ICK ICK ICK!The bathtub was extremely slippery and had no place to hang on to when getting in and out. I don't remember if I'd requested a handicap equipped room, but I was given an upstairs room with no grab bars in the tub which was a bit of a problem. The only downstairs room was "smoking".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r267682438-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>267682438</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Good fr family</t>
+  </si>
+  <si>
+    <t>This hotel is good for family travel,  room is large, nice and front desk is friendly. It is located at downtown Brea, near a huge hopping mall. My kid will go to California State University of Fulleton, it is just milesmaway from this univwrsity. I recommend it if you travel with your family.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r267252378-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>267252378</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Unexpectedly Delighted</t>
+  </si>
+  <si>
+    <t>This is my first review .. I'm not great with words .. but I REALLY felt I had to clarify.  I was nervous because of reading the privious bad reviews to stay here  .. but I'm so glad I did.                                                 First - It was surrounded by big beautiful trees, set back from the main street, very quiet and relaxing. Bed was clean and comfortable
+Second - The staff was beyond attentive, kind, and worked hard to meet all my needs.
+Third - It's not at all in an unsafe area.  Church across the street, close to shopping. I am a middle aged female and stayed alone ... I never once felt unsafe.  I even witnessed the Brea Police patrol the parking lot a couple of time.
+The outside trash cans did get full and over flowed a couple of days. With over 300 rooms and people emptying there own trash .. to be expected sometimes. Never stayed full long
+I hope this helps you make a more informed decision.  I was extremely pleased and enjoyed being close to my daughter and new grandbaby for a couple of weeks.
+I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my...This is my first review .. I'm not great with words .. but I REALLY felt I had to clarify.  I was nervous because of reading the privious bad reviews to stay here  .. but I'm so glad I did.                                                 First - It was surrounded by big beautiful trees, set back from the main street, very quiet and relaxing. Bed was clean and comfortableSecond - The staff was beyond attentive, kind, and worked hard to meet all my needs.Third - It's not at all in an unsafe area.  Church across the street, close to shopping. I am a middle aged female and stayed alone ... I never once felt unsafe.  I even witnessed the Brea Police patrol the parking lot a couple of time.The outside trash cans did get full and over flowed a couple of days. With over 300 rooms and people emptying there own trash .. to be expected sometimes. Never stayed full longI hope this helps you make a more informed decision.  I was extremely pleased and enjoyed being close to my daughter and new grandbaby for a couple of weeks.I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my morning coffeeCaryn YoungMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This is my first review .. I'm not great with words .. but I REALLY felt I had to clarify.  I was nervous because of reading the privious bad reviews to stay here  .. but I'm so glad I did.                                                 First - It was surrounded by big beautiful trees, set back from the main street, very quiet and relaxing. Bed was clean and comfortable
+Second - The staff was beyond attentive, kind, and worked hard to meet all my needs.
+Third - It's not at all in an unsafe area.  Church across the street, close to shopping. I am a middle aged female and stayed alone ... I never once felt unsafe.  I even witnessed the Brea Police patrol the parking lot a couple of time.
+The outside trash cans did get full and over flowed a couple of days. With over 300 rooms and people emptying there own trash .. to be expected sometimes. Never stayed full long
+I hope this helps you make a more informed decision.  I was extremely pleased and enjoyed being close to my daughter and new grandbaby for a couple of weeks.
+I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my...This is my first review .. I'm not great with words .. but I REALLY felt I had to clarify.  I was nervous because of reading the privious bad reviews to stay here  .. but I'm so glad I did.                                                 First - It was surrounded by big beautiful trees, set back from the main street, very quiet and relaxing. Bed was clean and comfortableSecond - The staff was beyond attentive, kind, and worked hard to meet all my needs.Third - It's not at all in an unsafe area.  Church across the street, close to shopping. I am a middle aged female and stayed alone ... I never once felt unsafe.  I even witnessed the Brea Police patrol the parking lot a couple of time.The outside trash cans did get full and over flowed a couple of days. With over 300 rooms and people emptying there own trash .. to be expected sometimes. Never stayed full longI hope this helps you make a more informed decision.  I was extremely pleased and enjoyed being close to my daughter and new grandbaby for a couple of weeks.I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my morning coffeeCaryn YoungMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r265977889-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>265977889</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Great Place Great Staff</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel several times.  Each and every time the staff has been awesome. They are very helpful, nice and welcoming.  Rooms are comfortable and clean. It's in a great location, safe and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r255438852-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>255438852</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Not what's expected</t>
+  </si>
+  <si>
+    <t>Our overnight stay didn't go well.  No elevator and room was stuffy. A/C was on automatic and much too loud.  A/c kept us up all night.  this is ' you get what you paid for'  Not staying there in future!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r253452161-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>253452161</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>God Awful</t>
+  </si>
+  <si>
+    <t>This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady...This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady to turn on the water. The door on the refrigerator opened on the left side next to the wall, so it was very awkward to get into – this despite the fact that the refrigerator allowed for the hinges to be placed on whichever side was appropriate. I don’t know for sure, but it seemed as though the hotel had a contract to provide housing for homeless families. The families, many with young kids, gathered at the bottom of the outside stairway, cursing, talking loudly, and smoking pot. (Probably for medical purposes, I’m sure.)  The room was supposed to be non-smoking but it reeked of tobacco, and because the doors hung open on several rooms all days, you could see people smoking inside. The children sometimes wandered unattended out into the parking lot during these times, so we had to take care not to run over one of them. During the day, the mother downstairs could be heard screaming at her pre-school children to “Shut the f*** up.” You have to take your own dirty towels and linens down to get them exchanged for clean ones. Basically, you go down to the lobby, where one of the staff throws a plastic bag across the counter and tells you to stuff your dirty linen in it to make the exchange. Although there is no cleaning service, somebody was obviously in our room during our absence because they turned off the TV and adjusted the air conditioning. (We had left the TV on to discourage theft – from other hotel guests.) I know it sounds crazy, but it’s all true. I’ve stayed in some dumps before, but never one like this. The staff seemed to be mostly young girls, who were sweet but clueless. This is not a staff problem, it’s the management.  How Extended Stay America included this site on their roster is a mystery. Never again – not at this hotel and not with any Extended Stay anywhere anytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady...This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady to turn on the water. The door on the refrigerator opened on the left side next to the wall, so it was very awkward to get into – this despite the fact that the refrigerator allowed for the hinges to be placed on whichever side was appropriate. I don’t know for sure, but it seemed as though the hotel had a contract to provide housing for homeless families. The families, many with young kids, gathered at the bottom of the outside stairway, cursing, talking loudly, and smoking pot. (Probably for medical purposes, I’m sure.)  The room was supposed to be non-smoking but it reeked of tobacco, and because the doors hung open on several rooms all days, you could see people smoking inside. The children sometimes wandered unattended out into the parking lot during these times, so we had to take care not to run over one of them. During the day, the mother downstairs could be heard screaming at her pre-school children to “Shut the f*** up.” You have to take your own dirty towels and linens down to get them exchanged for clean ones. Basically, you go down to the lobby, where one of the staff throws a plastic bag across the counter and tells you to stuff your dirty linen in it to make the exchange. Although there is no cleaning service, somebody was obviously in our room during our absence because they turned off the TV and adjusted the air conditioning. (We had left the TV on to discourage theft – from other hotel guests.) I know it sounds crazy, but it’s all true. I’ve stayed in some dumps before, but never one like this. The staff seemed to be mostly young girls, who were sweet but clueless. This is not a staff problem, it’s the management.  How Extended Stay America included this site on their roster is a mystery. Never again – not at this hotel and not with any Extended Stay anywhere anytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r252950228-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>252950228</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Great hotel for great price. My parents stayed here for a month after my wedding and everything went pretty good. The only thing is that their landline in the room is only free for numbers with the specified area code. We forgot about it and end up paying some extra bucks for using the phone. Make sure you check with the front desk. Overall, we really liked this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel for great price. My parents stayed here for a month after my wedding and everything went pretty good. The only thing is that their landline in the room is only free for numbers with the specified area code. We forgot about it and end up paying some extra bucks for using the phone. Make sure you check with the front desk. Overall, we really liked this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r251374626-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>251374626</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>It's a dive, people</t>
+  </si>
+  <si>
+    <t>OK - so I will try and write a balanced review here, but the title may give away the conclusion...
+Challenges:
+1. For an extended stay hotel, the rooms are tiny. Not fun.
+2. Pubic hair in my sink when I arrived. Yes, you read that correctly. But given the look of the rest of the place, I am guessing it's the same in most of the rooms.
+3. Spaghettii sauce on the counter. Not clean.
+4. Odd stains on the bedspread. Ew.
+5. Generally chipped, cracked, scratched feel
+6. No maid service - not sure what gives there? Trash not taken out, bed not made. Maybe I missed something ...
+7. Noisy air conditioner inside ... the classic big wunka wunka wunka noise when it comes on.
+8. Much noisiness outside. The rooms are the type that open out on to the passageway (no internal corridor). People walking dogs in the parking lot and shouting to each other. Not much sleep.
+9. Poor design. Want to work in the room? Guess what - with the curtain open everyone gets to look in on you as they walk past. Really ... not even a privacy curtain.
+10. Despite no maid service, staff seems to come in when I am gone. They changed the setting on my air conditioner, turned my tv off when I left it on etc. Weird. Made me feel not safe / secure.
+11. No cups in...OK - so I will try and write a balanced review here, but the title may give away the conclusion...Challenges:1. For an extended stay hotel, the rooms are tiny. Not fun.2. Pubic hair in my sink when I arrived. Yes, you read that correctly. But given the look of the rest of the place, I am guessing it's the same in most of the rooms.3. Spaghettii sauce on the counter. Not clean.4. Odd stains on the bedspread. Ew.5. Generally chipped, cracked, scratched feel6. No maid service - not sure what gives there? Trash not taken out, bed not made. Maybe I missed something ...7. Noisy air conditioner inside ... the classic big wunka wunka wunka noise when it comes on.8. Much noisiness outside. The rooms are the type that open out on to the passageway (no internal corridor). People walking dogs in the parking lot and shouting to each other. Not much sleep.9. Poor design. Want to work in the room? Guess what - with the curtain open everyone gets to look in on you as they walk past. Really ... not even a privacy curtain.10. Despite no maid service, staff seems to come in when I am gone. They changed the setting on my air conditioner, turned my tv off when I left it on etc. Weird. Made me feel not safe / secure.11. No cups in the room. You have to ask and then they will send up a box of silverware and plates and cups and stuff. Really? At least put cups in the room guys!12. No coffee in the room13. Breakfast sucks. It is minimal ... granola bars, coffee, muffins ... don't bother14. You generally get the sense that this place is run to the absolute bare minimum possible ... no extra blankets in the room, teeny tiny shampoo ... you get the picture.15. Awful pillows.16. Crappy wardrobe area. A couple wire shelves with a stained curtain in front of them. Yeah.17. No oven - just two hotplates and a microwave. No pots and pans either - I guess that's part of the game of needing to ask for everything. Because I really want to take crappy pots and pans with me when I go home ... not.18. Free WiFi is slow and crappy. They want to upsell you to the paid WiFi. Cheapskate move.Positives:1. Parking is good2. Front desk lady was angelic - she was just on the job for a few days and was super sweet and helpful.3. Rough towels. I like rough towels. But they were a bit small. You may want to move this to the challenge area. My wife would.4. Loads of great stuff nearby. Brea is a clean, nice suburb. I loved spending some time in Craig Park on a couple of sunny mornings. They have a Trader Joes 2 minutes away down the road, good coffee shops ... you name it (except, probably for nightlife - this is a suburb after all).5. It has a fridge. OK - I know this is a stretch, but it does have a fridge. I think the inside of the fridge is the cleanest place in this whole room. I even put my cereal in there.6. I slept reasonably well. I did not get sick. I suffered no harm. But then I survived living in shared lodgings with a bunch of guys at college. This is a notch or two above that. But not much.The end.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>OK - so I will try and write a balanced review here, but the title may give away the conclusion...
+Challenges:
+1. For an extended stay hotel, the rooms are tiny. Not fun.
+2. Pubic hair in my sink when I arrived. Yes, you read that correctly. But given the look of the rest of the place, I am guessing it's the same in most of the rooms.
+3. Spaghettii sauce on the counter. Not clean.
+4. Odd stains on the bedspread. Ew.
+5. Generally chipped, cracked, scratched feel
+6. No maid service - not sure what gives there? Trash not taken out, bed not made. Maybe I missed something ...
+7. Noisy air conditioner inside ... the classic big wunka wunka wunka noise when it comes on.
+8. Much noisiness outside. The rooms are the type that open out on to the passageway (no internal corridor). People walking dogs in the parking lot and shouting to each other. Not much sleep.
+9. Poor design. Want to work in the room? Guess what - with the curtain open everyone gets to look in on you as they walk past. Really ... not even a privacy curtain.
+10. Despite no maid service, staff seems to come in when I am gone. They changed the setting on my air conditioner, turned my tv off when I left it on etc. Weird. Made me feel not safe / secure.
+11. No cups in...OK - so I will try and write a balanced review here, but the title may give away the conclusion...Challenges:1. For an extended stay hotel, the rooms are tiny. Not fun.2. Pubic hair in my sink when I arrived. Yes, you read that correctly. But given the look of the rest of the place, I am guessing it's the same in most of the rooms.3. Spaghettii sauce on the counter. Not clean.4. Odd stains on the bedspread. Ew.5. Generally chipped, cracked, scratched feel6. No maid service - not sure what gives there? Trash not taken out, bed not made. Maybe I missed something ...7. Noisy air conditioner inside ... the classic big wunka wunka wunka noise when it comes on.8. Much noisiness outside. The rooms are the type that open out on to the passageway (no internal corridor). People walking dogs in the parking lot and shouting to each other. Not much sleep.9. Poor design. Want to work in the room? Guess what - with the curtain open everyone gets to look in on you as they walk past. Really ... not even a privacy curtain.10. Despite no maid service, staff seems to come in when I am gone. They changed the setting on my air conditioner, turned my tv off when I left it on etc. Weird. Made me feel not safe / secure.11. No cups in the room. You have to ask and then they will send up a box of silverware and plates and cups and stuff. Really? At least put cups in the room guys!12. No coffee in the room13. Breakfast sucks. It is minimal ... granola bars, coffee, muffins ... don't bother14. You generally get the sense that this place is run to the absolute bare minimum possible ... no extra blankets in the room, teeny tiny shampoo ... you get the picture.15. Awful pillows.16. Crappy wardrobe area. A couple wire shelves with a stained curtain in front of them. Yeah.17. No oven - just two hotplates and a microwave. No pots and pans either - I guess that's part of the game of needing to ask for everything. Because I really want to take crappy pots and pans with me when I go home ... not.18. Free WiFi is slow and crappy. They want to upsell you to the paid WiFi. Cheapskate move.Positives:1. Parking is good2. Front desk lady was angelic - she was just on the job for a few days and was super sweet and helpful.3. Rough towels. I like rough towels. But they were a bit small. You may want to move this to the challenge area. My wife would.4. Loads of great stuff nearby. Brea is a clean, nice suburb. I loved spending some time in Craig Park on a couple of sunny mornings. They have a Trader Joes 2 minutes away down the road, good coffee shops ... you name it (except, probably for nightlife - this is a suburb after all).5. It has a fridge. OK - I know this is a stretch, but it does have a fridge. I think the inside of the fridge is the cleanest place in this whole room. I even put my cereal in there.6. I slept reasonably well. I did not get sick. I suffered no harm. But then I survived living in shared lodgings with a bunch of guys at college. This is a notch or two above that. But not much.The end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r249944562-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>249944562</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Overpriced and dirty</t>
+  </si>
+  <si>
+    <t>Booked this room for an extended business trip and am already regretting that decision. When I arrived, there was no one at the front desk and sat in the lobby for 10 minutes waiting for someone. Finally when I got to my room, there was a loud chirping of crickets coming from the refrigerator. When I shined a flashlight under there was some sort of rotting material and several MAGGOTS under the fridge. I asked to change rooms and it smells like curry in here. Wish I had not booked the non-refundable room. Please save your money and go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Booked this room for an extended business trip and am already regretting that decision. When I arrived, there was no one at the front desk and sat in the lobby for 10 minutes waiting for someone. Finally when I got to my room, there was a loud chirping of crickets coming from the refrigerator. When I shined a flashlight under there was some sort of rotting material and several MAGGOTS under the fridge. I asked to change rooms and it smells like curry in here. Wish I had not booked the non-refundable room. Please save your money and go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r248847447-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>248847447</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>ok ? stay at Ex Stay Brea</t>
+  </si>
+  <si>
+    <t>stay over the thanksgiving HD . room was fair but it needed some repair, but clean ,comfortable bed , bathroom was clean , right on the imperial Hwy, staff had some issues.  but all in all I had a fair stay here  and a fair rating , fair to ok value for the $MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>stay over the thanksgiving HD . room was fair but it needed some repair, but clean ,comfortable bed , bathroom was clean , right on the imperial Hwy, staff had some issues.  but all in all I had a fair stay here  and a fair rating , fair to ok value for the $More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r243706556-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>243706556</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Diminishing value</t>
+  </si>
+  <si>
+    <t>ESA had been our favorite brand and we've stayed in them across the country.  Being close to and having friends and relatives in SoCal, we frequented each the ESA in Cypress, Huntington Beach and Brea.  They were relatively clean, well maintained, nicely stocked for longer stays (cookware, cups, glasses, dishes, etc.), and priced really well (after the numerous deals and discounts).
+Things have changed.  When we arrived, we were told that they no longer stock the rooms but we can call down and, promptly, receive the coffee maker, glasses and plates, and so forth.  Okay, we got to the room and I wanted a drink after the six-hour drive.  Forty-five minutes later the very nice person at the front desk apologized for the delay explaining that she was the only person on duty.  There weren't, even, those crappy little plastic cups in the room.
+The rooms used to be respectfully clean.  This one yielded black feet.  The bed was okay and the sheets were clean.  The mattress pad was tattered and unclean.  There were no unwanted guests.  The towels were really rough.  WiFi is free but they try really hard to up-sell.  The "grab and go" breakfast is substandard for this price point.  Trash barrels in the corridor overflowed.  The stairwell smelled like a wino's alley and the steps were wet.
+The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from...ESA had been our favorite brand and we've stayed in them across the country.  Being close to and having friends and relatives in SoCal, we frequented each the ESA in Cypress, Huntington Beach and Brea.  They were relatively clean, well maintained, nicely stocked for longer stays (cookware, cups, glasses, dishes, etc.), and priced really well (after the numerous deals and discounts).Things have changed.  When we arrived, we were told that they no longer stock the rooms but we can call down and, promptly, receive the coffee maker, glasses and plates, and so forth.  Okay, we got to the room and I wanted a drink after the six-hour drive.  Forty-five minutes later the very nice person at the front desk apologized for the delay explaining that she was the only person on duty.  There weren't, even, those crappy little plastic cups in the room.The rooms used to be respectfully clean.  This one yielded black feet.  The bed was okay and the sheets were clean.  The mattress pad was tattered and unclean.  There were no unwanted guests.  The towels were really rough.  WiFi is free but they try really hard to up-sell.  The "grab and go" breakfast is substandard for this price point.  Trash barrels in the corridor overflowed.  The stairwell smelled like a wino's alley and the steps were wet.The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from three years ago.  Nevertheless, you would be hard pressed to find more pleasant people to deal with.  They deserve better.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>ESA had been our favorite brand and we've stayed in them across the country.  Being close to and having friends and relatives in SoCal, we frequented each the ESA in Cypress, Huntington Beach and Brea.  They were relatively clean, well maintained, nicely stocked for longer stays (cookware, cups, glasses, dishes, etc.), and priced really well (after the numerous deals and discounts).
+Things have changed.  When we arrived, we were told that they no longer stock the rooms but we can call down and, promptly, receive the coffee maker, glasses and plates, and so forth.  Okay, we got to the room and I wanted a drink after the six-hour drive.  Forty-five minutes later the very nice person at the front desk apologized for the delay explaining that she was the only person on duty.  There weren't, even, those crappy little plastic cups in the room.
+The rooms used to be respectfully clean.  This one yielded black feet.  The bed was okay and the sheets were clean.  The mattress pad was tattered and unclean.  There were no unwanted guests.  The towels were really rough.  WiFi is free but they try really hard to up-sell.  The "grab and go" breakfast is substandard for this price point.  Trash barrels in the corridor overflowed.  The stairwell smelled like a wino's alley and the steps were wet.
+The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from...ESA had been our favorite brand and we've stayed in them across the country.  Being close to and having friends and relatives in SoCal, we frequented each the ESA in Cypress, Huntington Beach and Brea.  They were relatively clean, well maintained, nicely stocked for longer stays (cookware, cups, glasses, dishes, etc.), and priced really well (after the numerous deals and discounts).Things have changed.  When we arrived, we were told that they no longer stock the rooms but we can call down and, promptly, receive the coffee maker, glasses and plates, and so forth.  Okay, we got to the room and I wanted a drink after the six-hour drive.  Forty-five minutes later the very nice person at the front desk apologized for the delay explaining that she was the only person on duty.  There weren't, even, those crappy little plastic cups in the room.The rooms used to be respectfully clean.  This one yielded black feet.  The bed was okay and the sheets were clean.  The mattress pad was tattered and unclean.  There were no unwanted guests.  The towels were really rough.  WiFi is free but they try really hard to up-sell.  The "grab and go" breakfast is substandard for this price point.  Trash barrels in the corridor overflowed.  The stairwell smelled like a wino's alley and the steps were wet.The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from three years ago.  Nevertheless, you would be hard pressed to find more pleasant people to deal with.  They deserve better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r239940097-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>239940097</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible and not for business people </t>
+  </si>
+  <si>
+    <t>The room smells curry the whole concept is not the most business oriented despite the good people at the hotel who work very hard but the concept is mainly for Indian people who love to cook themselves on the hotel and you can smell it. May be it is my mistake that I book this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>The room smells curry the whole concept is not the most business oriented despite the good people at the hotel who work very hard but the concept is mainly for Indian people who love to cook themselves on the hotel and you can smell it. May be it is my mistake that I book this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r238700170-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>238700170</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Hell on earth</t>
+  </si>
+  <si>
+    <t>The staff is the worst one in particular Angela treated me with in respect filmed the whole thing. sink backed up room flooded with raw sewage .At 4 am hotel personnel tried to open the door when confronted ran away .Have traveled all over the world for work en 25 years have never stayed at such a horrible place .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>The staff is the worst one in particular Angela treated me with in respect filmed the whole thing. sink backed up room flooded with raw sewage .At 4 am hotel personnel tried to open the door when confronted ran away .Have traveled all over the world for work en 25 years have never stayed at such a horrible place .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r229235097-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>229235097</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>My wife and I went to the extended stay in brea for a quick getaway for the weekend and did not have a good experience. There was a missing smoke detector, the floor and room was extremely dirty and there was no shower curtain. The staff was very unorganized and unprofessional. Motel 6 would have been a better choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I went to the extended stay in brea for a quick getaway for the weekend and did not have a good experience. There was a missing smoke detector, the floor and room was extremely dirty and there was no shower curtain. The staff was very unorganized and unprofessional. Motel 6 would have been a better choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r226129439-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>226129439</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Why bother?</t>
+  </si>
+  <si>
+    <t>Bad service at check-in (they didn't have one of our rooms on file), rooms felt dingy and dark, not clean. It felt like we were stay at a really bad college dorm room.Our friends told us this place has a lot of crime (after we stayed there), so we wished we had made a different choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Bad service at check-in (they didn't have one of our rooms on file), rooms felt dingy and dark, not clean. It felt like we were stay at a really bad college dorm room.Our friends told us this place has a lot of crime (after we stayed there), so we wished we had made a different choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r223748612-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>223748612</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Good vacation trip</t>
+  </si>
+  <si>
+    <t>You will get good service for what you are paying. The hotel room was so clean and also the bathroom was in good shape too. I can handle if the room is so so,but I don't like if bathroom is not clean and comfortable. Overall I can say it was perfect room for me and my family. For desk staff was very helpful and cheering. Breakfast was fresh and yummy. Wonderful trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r219246426-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>219246426</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't recommend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor management , can't find anyone behind the desk for extended periods of time, under staffed , room not very clean , bring your own shampoo and body was, they don't have any. Certainly not worth staying unless you need a place to crash for just one night and low price is your only criteria. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r219150245-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>219150245</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>California trip</t>
+  </si>
+  <si>
+    <t>I stayed here last month. My whole stay was awesome. hotel was very clean and comfortable. staff service was excellent. Hotel area is very beautiful. everything is close to hotel[Restaurants, mall etc.] Parking are is huge. and not expensive either.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r218844434-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>218844434</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE,ROOM &amp; SLEEP.</t>
+  </si>
+  <si>
+    <t>Your newest tv commercial almost says it all...not just a kitchen,kitchen...but one with pots n pans,dishes,silverware,glassware, cooking utensils,ice trays,dishwasher soap,KITCHEN. CLEAN,#1BEDS AND GREAT LOCATION,KIND AND FRIENDLY SERVICE.I WILL DEFINITELY BE BACK.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r213302499-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>213302499</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>The staff was rude....if you could find any, that is, they wouldn't give us an extra roll of toilet tissue, we ended up buying some, TV didn't work, internet didn't work, handles were not properly attached to drawers &amp; cabinets, walls were paper thin, it was an awful experience...the price was good, HOWEVER, you get what you pay for!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r210863920-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>210863920</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>A place to crash.</t>
+  </si>
+  <si>
+    <t>Stayed one night. The beds were a little firm, but comfortable. Being an Extended stay, there was a little kitchenette. A filter was attached to the faucet, but it didn't work. In the closet, a shelf was slanted and looked like someone either hung on or tried to put a heavy suitcase on it.Overall, it was okay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r210649439-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>210649439</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Great Staff; Filthy Rooms...</t>
+  </si>
+  <si>
+    <t>We checked in and the staff was very nice.  We got into the room... it smelled weird/ stale.  The carpet was absolutely disgusting!  I have a 10 month old baby and could not set her down on the floor to crawl around.  The bath tub was gross as well.  We stayed the first night in utter disgust.  We went to my aunt's house to bathe the kids and relax for the day.  We then requested a change of room... the staff was great and very friendly, and understood how dirty the floors are. We moved into the new room and the floor was "better" but still gross.  My feet were black on the bottoms from walking around... likewise, my poor baby was crawling around on this.  We had no choice but to stay since the room was pre-paid/ non-refundable thru Hotel One, so we dealt with it.  The shower/ bath tub was not cleaned properly and there was still hair on the wall and near the drain.  We bathed at my aunt's house the rest of the week.  VERY DISAPPOINTED.... but the staff was very nice and friendly, sad they work at such a dump!MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in and the staff was very nice.  We got into the room... it smelled weird/ stale.  The carpet was absolutely disgusting!  I have a 10 month old baby and could not set her down on the floor to crawl around.  The bath tub was gross as well.  We stayed the first night in utter disgust.  We went to my aunt's house to bathe the kids and relax for the day.  We then requested a change of room... the staff was great and very friendly, and understood how dirty the floors are. We moved into the new room and the floor was "better" but still gross.  My feet were black on the bottoms from walking around... likewise, my poor baby was crawling around on this.  We had no choice but to stay since the room was pre-paid/ non-refundable thru Hotel One, so we dealt with it.  The shower/ bath tub was not cleaned properly and there was still hair on the wall and near the drain.  We bathed at my aunt's house the rest of the week.  VERY DISAPPOINTED.... but the staff was very nice and friendly, sad they work at such a dump!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r208110565-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>208110565</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Best bang for your buck.</t>
+  </si>
+  <si>
+    <t>I truly believe you get the most bang for your buck if your going to need a longer term hotel stay. The staff here were very friendly and made sure guests were comfortable during their stay. Not to mention this location is literally down the street from the freeway so it made commuting anyway in the o.c. a breeze.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r206897723-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>206897723</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>I stay at this hotel and i think the experience was nice. the location was great. very close to brea mall and the room and hotel itself was very nice and clean. I stayed with my family for couple of days... we were in the process of finding our new home... rooms had kitchen and we were able to cook. and the staff was vey nice and friendly. very positive experience.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r205844016-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>205844016</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy staying here, all the customer service were so friendly. They help as much possible as they can. There wasn't any bugs or cockroach that other people has been stating here. I mean the hotel does need a little bit up to date along with a little fix on bathtub. Overall, I really enjoyed it, nothing to complain about. I would recommend for people who want to stay at an affordable location, this would be the place and location is so quiet. I was surprised that they had a small kitchen in the room, I usually cook breakfast in the morning.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r200896738-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>200896738</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Spoil yourself at extendedstay america.</t>
+  </si>
+  <si>
+    <t>From the begining to the end you will enjoy your stay there.Although I over slept...I was woken up by hearing a sweet spoken maid saying, wake up princess...princess wake up.All the comforts of home and great customer service.I'm disabled and I was also very pleased with the ample parking and the acess to my room. I will defently stay with this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2014</t>
+  </si>
+  <si>
+    <t>From the begining to the end you will enjoy your stay there.Although I over slept...I was woken up by hearing a sweet spoken maid saying, wake up princess...princess wake up.All the comforts of home and great customer service.I'm disabled and I was also very pleased with the ample parking and the acess to my room. I will defently stay with this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r198176723-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>198176723</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Not loving it.</t>
+  </si>
+  <si>
+    <t>I am still saying here mostly because I am not paying for it. First I would like to say the staff is very nice and helpful. one the other hand the room we got the shelf in the closet and a bar under at lest one of the beds are broken. The towels have black spots on the along with the bedding. The 'wood' floor had marks on it as well as the walls of the shower. Also if you are wanting to stay here with your cats I would say go someplace els they charge 600$ for two and I have never seen and hotel charge that much ever. I am only giving this place a three stars because the staff is very nice and the breakfast is not that bad ether.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>I am still saying here mostly because I am not paying for it. First I would like to say the staff is very nice and helpful. one the other hand the room we got the shelf in the closet and a bar under at lest one of the beds are broken. The towels have black spots on the along with the bedding. The 'wood' floor had marks on it as well as the walls of the shower. Also if you are wanting to stay here with your cats I would say go someplace els they charge 600$ for two and I have never seen and hotel charge that much ever. I am only giving this place a three stars because the staff is very nice and the breakfast is not that bad ether.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r196072296-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>196072296</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Above &amp; beyond service</t>
+  </si>
+  <si>
+    <t>I wanted to take a moment to thank the staff at the Brea Extended Stay America.They were a delight to be greeted by &amp; all my needs were met.This was my first time staying here &amp; I will be back again.Thank you for such a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>I wanted to take a moment to thank the staff at the Brea Extended Stay America.They were a delight to be greeted by &amp; all my needs were met.This was my first time staying here &amp; I will be back again.Thank you for such a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r194681804-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>194681804</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Long term user very pleased with service</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a long term stay.  I have to say the staff is top notch, ready to assist you with whatever needs you might have.  Special Kudos go out to Mary Ann, Jaime and Priscilla - all of whom are at the top of their game.  While there are downsides to only having housekeeping once a week, anything you need is always available at the front desk.  The property is very quiet, as are the rooms and any issues are promptly addressed.  The only negatives that I have encountered are that the kitchen could use more cooking utensils and the television lineup leaves nothing to be desired.  I will gladly stay here again if the need arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a long term stay.  I have to say the staff is top notch, ready to assist you with whatever needs you might have.  Special Kudos go out to Mary Ann, Jaime and Priscilla - all of whom are at the top of their game.  While there are downsides to only having housekeeping once a week, anything you need is always available at the front desk.  The property is very quiet, as are the rooms and any issues are promptly addressed.  The only negatives that I have encountered are that the kitchen could use more cooking utensils and the television lineup leaves nothing to be desired.  I will gladly stay here again if the need arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r194528714-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>194528714</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Definitely not a home away from home!</t>
+  </si>
+  <si>
+    <t>Was not satisfied at all. You need to do something with the incident happened: giving away our room during stay. What if we were not in the room when it happened? You those other guess access to our belongings. The no housekeeping for stay less than 8 nights is definitely not a good policy. Finally the room and bathroom were dirty. MoreShow less</t>
+  </si>
+  <si>
+    <t>Was not satisfied at all. You need to do something with the incident happened: giving away our room during stay. What if we were not in the room when it happened? You those other guess access to our belongings. The no housekeeping for stay less than 8 nights is definitely not a good policy. Finally the room and bathroom were dirty. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r193288561-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>193288561</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Pleased with service</t>
+  </si>
+  <si>
+    <t>i stayed here for a few days, and i was pleased with the quality that's offered, kitchen was big enough, nice and clean rooms. felt at home. Staff is nice and friendly and gave me toothpaste that i had left home, i will come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>i stayed here for a few days, and i was pleased with the quality that's offered, kitchen was big enough, nice and clean rooms. felt at home. Staff is nice and friendly and gave me toothpaste that i had left home, i will come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r181747709-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>181747709</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Stay out of this place for god sake</t>
+  </si>
+  <si>
+    <t>I happen to stay here for 2 weeks as per my company's policy and believe me this place has the worst cleanliness among all the ESA hotels I had even seen. The location for shopping is great but  except that you won't get anything else here. Laundry service is available but no detergent, kitchen is available but not enough utensils for cooking. Everything has to be requested and served only on demand basis. Access cards won't work for no reason and we need to go to front desk and wait patiently for those lazy people to show up. This hotel really sucks ...stay out of this place if possible. Had been a nearby hotel with full kitchen I would have left this place on the second day of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>I happen to stay here for 2 weeks as per my company's policy and believe me this place has the worst cleanliness among all the ESA hotels I had even seen. The location for shopping is great but  except that you won't get anything else here. Laundry service is available but no detergent, kitchen is available but not enough utensils for cooking. Everything has to be requested and served only on demand basis. Access cards won't work for no reason and we need to go to front desk and wait patiently for those lazy people to show up. This hotel really sucks ...stay out of this place if possible. Had been a nearby hotel with full kitchen I would have left this place on the second day of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r178395370-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>178395370</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>THIEVES</t>
+  </si>
+  <si>
+    <t>Make sure not to stay here unless you want your s*#t stolen. &lt;------- That was the main thing wrong, but wait theres more. At about 10:30 i noticed that i could smell cigarette smoke coming from the kitchen area, didnt think too much about it. Half hour later it was strong, put my nose to the wall sockets which are located next to the toaster (4 feet off the ground estimate) theres no doubt thats where it was coming from. DIRTY DIRTY DIRTY  unless you love rollie pollie bugs  then dont stay here. all over the place i dont get it. weird . Again back to whats got me fumed is they stole a very expensive diamond ring from me. before we were checked out. we stayed a week didnt realize our check out day was upon us so they called  to ask us if we wanted to extend our stay since much of our stuff was still there my husband went back but it was too late GONE 2 rings. I can blame myself and i can make myself sick at the thought of someone making off with my diamond ring a gift from my husband. i curse myself for removing it before bed. cant trust anyone these daysMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Make sure not to stay here unless you want your s*#t stolen. &lt;------- That was the main thing wrong, but wait theres more. At about 10:30 i noticed that i could smell cigarette smoke coming from the kitchen area, didnt think too much about it. Half hour later it was strong, put my nose to the wall sockets which are located next to the toaster (4 feet off the ground estimate) theres no doubt thats where it was coming from. DIRTY DIRTY DIRTY  unless you love rollie pollie bugs  then dont stay here. all over the place i dont get it. weird . Again back to whats got me fumed is they stole a very expensive diamond ring from me. before we were checked out. we stayed a week didnt realize our check out day was upon us so they called  to ask us if we wanted to extend our stay since much of our stuff was still there my husband went back but it was too late GONE 2 rings. I can blame myself and i can make myself sick at the thought of someone making off with my diamond ring a gift from my husband. i curse myself for removing it before bed. cant trust anyone these daysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r173081422-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>173081422</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Full review of queen room. Couples stay. Overall, good quality.</t>
+  </si>
+  <si>
+    <t>My significant other and I stayed a total of 6 nights in this Hotel. Overall the stay was fair. 
+The location of the hotel is great.
+Not far from the local hot spots including a mall, downtown area, theater, shopping centers, grocery markets, and is within 20-40 minutes from Disneyland, Knotts berry farm, water parks, the beach, aquarium, ect. You will easily find activities to do for all ages within a fair driving distance. 
+Moving on to the actual room itself. 
+My first reaction was that it was on the smaller side. Pictures lead me to believe it would be a bit larger. It was still decent inside for a queen sized room for 2, just not what I expected. There was a bed, night stand, chair, TV, kitchen area, and table/counter in the kitchen for 2. As well as the restroom attached. 
+KITCHEN:  As promised there was a pot, pan, a few plates, mugs, cups, and silverware (although there was only 1 fork). As well as a stove, microwave, and full freezer/fridge set with ice cube trays. there was not an oven, but it is easy to make do with the stove and microwave. 
+BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were...My significant other and I stayed a total of 6 nights in this Hotel. Overall the stay was fair. The location of the hotel is great.Not far from the local hot spots including a mall, downtown area, theater, shopping centers, grocery markets, and is within 20-40 minutes from Disneyland, Knotts berry farm, water parks, the beach, aquarium, ect. You will easily find activities to do for all ages within a fair driving distance. Moving on to the actual room itself. My first reaction was that it was on the smaller side. Pictures lead me to believe it would be a bit larger. It was still decent inside for a queen sized room for 2, just not what I expected. There was a bed, night stand, chair, TV, kitchen area, and table/counter in the kitchen for 2. As well as the restroom attached. KITCHEN:  As promised there was a pot, pan, a few plates, mugs, cups, and silverware (although there was only 1 fork). As well as a stove, microwave, and full freezer/fridge set with ice cube trays. there was not an oven, but it is easy to make do with the stove and microwave. BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were provided at the start and if more towels are needed you must go to the front desk to get more/ dispose of the soiled ones. (not a problem for us, we just reused our towels). INTERNET: The normal provided internet included in the cost of the room actually worked great. I was able to watch episodes of TV online without having to wait ages for it to buffer and was able to play a few video games online as well. if you plan on doing hardcore gaming/uploading photos or items you should probably upgrade to their high speed option which was reasonably priced as well. i believe it was $9.99 for a weeks worth and there were day use amounts as well. All in all their internet was good. TV: The Tv was nice. Flat screen and on a swivel, so you can move it if you want to watch it from different locations in the room/ move it to remove a glare. Typical cable options as well as showtime, discover channel, cartoon network, etc. AIR CONDITIONING: This is my one BIG complaint I have. There is air conditioning as well as heat. And it did work, however it is at a locked temperature of 74 degrees F. It would not go any lower, and having stayed in August when it was 90-100 degrees this was not cool enough. Often times I was sweating in the room. Even if it was at 74 degrees it felt much warmer in the room. It got so warm at night that I brought a fan of my own to help cool it down. If you get hot easily, I would suggest bringing a fan. CLEANLINESS: Not bad. Not great, but not bad. There were no stains, markings, or any worrisome spots that had me on edge. But because it is extended stay you have to pay extra for daily/weekly maid services. If you plan on staying more than a week, I would say this is a must (at least once a week). Dishes are not included in the maid services and any dishes you dirty YOU must clean. BED: It was comfortable enough. A bit on the harder side but not bad. It only had 3 pillows for a queen bed with 2 people though. it was clean, although the blanket in between the comforter and the sheets was on the itchy side. we ended up putting it in the closet and just using the comforter. AMENITIES/SUPPLIES: We mainly used it as a place to sleep and eat. It had all the necessary bedding supplies. sheets, blankets, comforters, and 3 pillows in a queen room. It had a packet of dish soap for any dishes that may have needed  washing. As well as soap for the bathroom. There was also plenty of cabinet space for food as well as a full size fridge/freezer. OVERALL THOUGHTS: It was a decent price considering it had a kitchen, however if you do not need a kitchen for your stay, I would suggest a different hotel. You can find rooms of a much higher quality and comfort level for the same price in the area. Mainly because it is extended stay you should remember that there is no one to refresh towels daily, take our trash, dust, vacuum, make the bed, etc...all that is your responsibility unless you pay extra for maid services. It is something to take into consideration. I was happy with my stay and the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>My significant other and I stayed a total of 6 nights in this Hotel. Overall the stay was fair. 
+The location of the hotel is great.
+Not far from the local hot spots including a mall, downtown area, theater, shopping centers, grocery markets, and is within 20-40 minutes from Disneyland, Knotts berry farm, water parks, the beach, aquarium, ect. You will easily find activities to do for all ages within a fair driving distance. 
+Moving on to the actual room itself. 
+My first reaction was that it was on the smaller side. Pictures lead me to believe it would be a bit larger. It was still decent inside for a queen sized room for 2, just not what I expected. There was a bed, night stand, chair, TV, kitchen area, and table/counter in the kitchen for 2. As well as the restroom attached. 
+KITCHEN:  As promised there was a pot, pan, a few plates, mugs, cups, and silverware (although there was only 1 fork). As well as a stove, microwave, and full freezer/fridge set with ice cube trays. there was not an oven, but it is easy to make do with the stove and microwave. 
+BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were...My significant other and I stayed a total of 6 nights in this Hotel. Overall the stay was fair. The location of the hotel is great.Not far from the local hot spots including a mall, downtown area, theater, shopping centers, grocery markets, and is within 20-40 minutes from Disneyland, Knotts berry farm, water parks, the beach, aquarium, ect. You will easily find activities to do for all ages within a fair driving distance. Moving on to the actual room itself. My first reaction was that it was on the smaller side. Pictures lead me to believe it would be a bit larger. It was still decent inside for a queen sized room for 2, just not what I expected. There was a bed, night stand, chair, TV, kitchen area, and table/counter in the kitchen for 2. As well as the restroom attached. KITCHEN:  As promised there was a pot, pan, a few plates, mugs, cups, and silverware (although there was only 1 fork). As well as a stove, microwave, and full freezer/fridge set with ice cube trays. there was not an oven, but it is easy to make do with the stove and microwave. BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were provided at the start and if more towels are needed you must go to the front desk to get more/ dispose of the soiled ones. (not a problem for us, we just reused our towels). INTERNET: The normal provided internet included in the cost of the room actually worked great. I was able to watch episodes of TV online without having to wait ages for it to buffer and was able to play a few video games online as well. if you plan on doing hardcore gaming/uploading photos or items you should probably upgrade to their high speed option which was reasonably priced as well. i believe it was $9.99 for a weeks worth and there were day use amounts as well. All in all their internet was good. TV: The Tv was nice. Flat screen and on a swivel, so you can move it if you want to watch it from different locations in the room/ move it to remove a glare. Typical cable options as well as showtime, discover channel, cartoon network, etc. AIR CONDITIONING: This is my one BIG complaint I have. There is air conditioning as well as heat. And it did work, however it is at a locked temperature of 74 degrees F. It would not go any lower, and having stayed in August when it was 90-100 degrees this was not cool enough. Often times I was sweating in the room. Even if it was at 74 degrees it felt much warmer in the room. It got so warm at night that I brought a fan of my own to help cool it down. If you get hot easily, I would suggest bringing a fan. CLEANLINESS: Not bad. Not great, but not bad. There were no stains, markings, or any worrisome spots that had me on edge. But because it is extended stay you have to pay extra for daily/weekly maid services. If you plan on staying more than a week, I would say this is a must (at least once a week). Dishes are not included in the maid services and any dishes you dirty YOU must clean. BED: It was comfortable enough. A bit on the harder side but not bad. It only had 3 pillows for a queen bed with 2 people though. it was clean, although the blanket in between the comforter and the sheets was on the itchy side. we ended up putting it in the closet and just using the comforter. AMENITIES/SUPPLIES: We mainly used it as a place to sleep and eat. It had all the necessary bedding supplies. sheets, blankets, comforters, and 3 pillows in a queen room. It had a packet of dish soap for any dishes that may have needed  washing. As well as soap for the bathroom. There was also plenty of cabinet space for food as well as a full size fridge/freezer. OVERALL THOUGHTS: It was a decent price considering it had a kitchen, however if you do not need a kitchen for your stay, I would suggest a different hotel. You can find rooms of a much higher quality and comfort level for the same price in the area. Mainly because it is extended stay you should remember that there is no one to refresh towels daily, take our trash, dust, vacuum, make the bed, etc...all that is your responsibility unless you pay extra for maid services. It is something to take into consideration. I was happy with my stay and the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r170637544-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>170637544</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever</t>
+  </si>
+  <si>
+    <t>Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and...Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and call them attitude. To top it off they double charged my card because they didn't properly match up my prepaid amount via ORBITZ. Horrible staff, horrible management, horrible room, and thieves to boot. NEVER STAY HERE! Disgusting in all areas!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and...Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and call them attitude. To top it off they double charged my card because they didn't properly match up my prepaid amount via ORBITZ. Horrible staff, horrible management, horrible room, and thieves to boot. NEVER STAY HERE! Disgusting in all areas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r169946977-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>169946977</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Booked through Priceline-not a great deal</t>
+  </si>
+  <si>
+    <t>Booked 3 rooms through Priceline.com and thought we got a great deal - under $40.  Expecting rooms to have a bed and a pullout but staff member said only single bed rooms sold to 3rd party companies like Priceline.  After an hour of waiting for rooms to be "cleaned" and trying to get help from Priceline for predicament staff member gave us the option of paying $15.00 extra per night for the room with the pullout which we did.  The bathroom in my room was gross (mold around the tub) and the room where my sons stayed had a broken bed.  We reported the broken bed and asked to have it changed but the staff member insinuated we may have broken the bed.  Truly a nightmare experience.  Would never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked 3 rooms through Priceline.com and thought we got a great deal - under $40.  Expecting rooms to have a bed and a pullout but staff member said only single bed rooms sold to 3rd party companies like Priceline.  After an hour of waiting for rooms to be "cleaned" and trying to get help from Priceline for predicament staff member gave us the option of paying $15.00 extra per night for the room with the pullout which we did.  The bathroom in my room was gross (mold around the tub) and the room where my sons stayed had a broken bed.  We reported the broken bed and asked to have it changed but the staff member insinuated we may have broken the bed.  Truly a nightmare experience.  Would never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r166981862-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>166981862</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>UNDER NEW MANAGEMENT</t>
+  </si>
+  <si>
+    <t>be wary of this place now, it is under new management. prices are rising, renovations and repairs are completely non existent, it is not dog friendly, they hardly tolerate them anymore and they are terribly understaffed. Keep away from this place, it is not as it once was.MoreShow less</t>
+  </si>
+  <si>
+    <t>be wary of this place now, it is under new management. prices are rising, renovations and repairs are completely non existent, it is not dog friendly, they hardly tolerate them anymore and they are terribly understaffed. Keep away from this place, it is not as it once was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r159632402-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>159632402</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Worth the money. Had a wonderful time</t>
+  </si>
+  <si>
+    <t>Clean room, great customer service, staff was friendly and helpful. Enjoyed the fitness room during my stay. Located close to Brea mall and some good restaurants. The kitchen was really helpful, was able to do some cooking. Would recommend this hotel to my friends and family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r156941482-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>156941482</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Welcoming, Comfortable Home Away From Home</t>
+  </si>
+  <si>
+    <t>What a find!  We recently had to move out of our house while we were having some remodeling work done.  There are several choices of places in the general area that have rooms with kitchens.  We were attracted to this one because it is more reasonably priced than the others, is in a safe area near my work and is close to shopping, restaurants and a major freeway.  The staff is friendly and welcoming and the room was excellent.  We had a room with a king size bed.  The small kitchen was very adequate and had good storage space.  The bed was so comfortable that we contacted Serta and ordered one just like it!  Due to the length of our stay, we were able to get a very good rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2013</t>
+  </si>
+  <si>
+    <t>What a find!  We recently had to move out of our house while we were having some remodeling work done.  There are several choices of places in the general area that have rooms with kitchens.  We were attracted to this one because it is more reasonably priced than the others, is in a safe area near my work and is close to shopping, restaurants and a major freeway.  The staff is friendly and welcoming and the room was excellent.  We had a room with a king size bed.  The small kitchen was very adequate and had good storage space.  The bed was so comfortable that we contacted Serta and ordered one just like it!  Due to the length of our stay, we were able to get a very good rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r156835853-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>156835853</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Should Have Stayed At A Motel 6...</t>
+  </si>
+  <si>
+    <t>Seriously. Don't stay here. I gave this place a 1 only because I could not give it a 0.The staff was not knowledgeable about the area. The desk clerk couldn't even give me directions to the hotel over the phone. Later on, after having found the local grocery store all by my lonesome, I was chided by the desk clerk upon my return, "You could find the grocery store, but you couldn't find the hotel?" Really, guy? Don't start with me.The room stank. No joke, it smelled like [--]. There was hair all over the tub, leftover Chinese food in the fridge, and a used band-aid stuck to the wall. After making a call to the front desk, the mess that was my room was supposedly cleaned. However, I later found the same used band-aid on one of the bathroom towels that I was about to use to dry my hair. The neighboring guests smoked and hollered until about 2 AM. I was legitimately surprised management didn't hear. The experience was so bad that I ended up staying with some relatives in Corona, CA for the remainder of the trip. Truly horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Seriously. Don't stay here. I gave this place a 1 only because I could not give it a 0.The staff was not knowledgeable about the area. The desk clerk couldn't even give me directions to the hotel over the phone. Later on, after having found the local grocery store all by my lonesome, I was chided by the desk clerk upon my return, "You could find the grocery store, but you couldn't find the hotel?" Really, guy? Don't start with me.The room stank. No joke, it smelled like [--]. There was hair all over the tub, leftover Chinese food in the fridge, and a used band-aid stuck to the wall. After making a call to the front desk, the mess that was my room was supposedly cleaned. However, I later found the same used band-aid on one of the bathroom towels that I was about to use to dry my hair. The neighboring guests smoked and hollered until about 2 AM. I was legitimately surprised management didn't hear. The experience was so bad that I ended up staying with some relatives in Corona, CA for the remainder of the trip. Truly horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r153471133-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>153471133</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Trailer park status</t>
+  </si>
+  <si>
+    <t>I might as well have stayed at the dirtiest trailer park.... if that exists. The location is awesome no argument on that. The room smells as you walk in. Not very appealing when u know you will be spending the night there. The smell is musty and old like a dirty vacuum cleaner. The service was good considering that at night that poor person has to do everything. Seems like the 2nd floor is the place to be. I asked for a box of tissue and had to wait for someone to go to the 2nd floor to see if they had any. Then I realized I needed more towels. Got to the lobby to find it empty with a stupid sign saying they will be right back.  10 min later the Person appears to tell me that they have to go to the 2nd floor to see if they have clean towels?!?!?! You are running a business how do you not have clean towels?! So I have to wait again!  Don't get me wrong though the front desk person was very willing to help and I appreciate that very much!! The service was a little above average but the stinky dingy room, cleanliness of the premises was questionable. I may recommend but with lots of caution!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2013</t>
+  </si>
+  <si>
+    <t>I might as well have stayed at the dirtiest trailer park.... if that exists. The location is awesome no argument on that. The room smells as you walk in. Not very appealing when u know you will be spending the night there. The smell is musty and old like a dirty vacuum cleaner. The service was good considering that at night that poor person has to do everything. Seems like the 2nd floor is the place to be. I asked for a box of tissue and had to wait for someone to go to the 2nd floor to see if they had any. Then I realized I needed more towels. Got to the lobby to find it empty with a stupid sign saying they will be right back.  10 min later the Person appears to tell me that they have to go to the 2nd floor to see if they have clean towels?!?!?! You are running a business how do you not have clean towels?! So I have to wait again!  Don't get me wrong though the front desk person was very willing to help and I appreciate that very much!! The service was a little above average but the stinky dingy room, cleanliness of the premises was questionable. I may recommend but with lots of caution!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r153069849-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>153069849</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Cockroaches everywhere!</t>
+  </si>
+  <si>
+    <t>Our room was infested with cockroaches.  I found at least a dozen over a three day stay.  Management seemed indifferent to the problem.  Will never stay here again and would recommend the same to anyone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Our room was infested with cockroaches.  I found at least a dozen over a three day stay.  Management seemed indifferent to the problem.  Will never stay here again and would recommend the same to anyone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r152537501-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>152537501</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Hotel Sucks big time</t>
+  </si>
+  <si>
+    <t>This hotel is a rip off. The hotel was missing bedding when we checked in and the problem was not corrected during the stay. Would not recommend this hotel if you are a person who needs things to be atleast decent for your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is a rip off. The hotel was missing bedding when we checked in and the problem was not corrected during the stay. Would not recommend this hotel if you are a person who needs things to be atleast decent for your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150743040-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>150743040</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Great overall including the price !</t>
+  </si>
+  <si>
+    <t>This is such a great place , it's like a mini studio, they even provide pots &amp; pans to cook in and plates/utensils. They could improve the Grab &amp; Go bfst options, but, soo many restaurants around the location so no biggy. Cable is provided but could offer a few more movie channels. Staff was very friendly and helpful. Luv this place, stood for a great deal! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>This is such a great place , it's like a mini studio, they even provide pots &amp; pans to cook in and plates/utensils. They could improve the Grab &amp; Go bfst options, but, soo many restaurants around the location so no biggy. Cable is provided but could offer a few more movie channels. Staff was very friendly and helpful. Luv this place, stood for a great deal! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150631123-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>150631123</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>wonderfull stay</t>
+  </si>
+  <si>
+    <t>everything was fine and good, great value freindly staff,very clean rooms .it was close to restaurant centrally located. manager was very friendly and helpfull. it is close to the freeway.close to the world famous former president nixion library. close to theme parks and easy excess to freeway trip to hollywood and san diego.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded January 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2013</t>
+  </si>
+  <si>
+    <t>everything was fine and good, great value freindly staff,very clean rooms .it was close to restaurant centrally located. manager was very friendly and helpfull. it is close to the freeway.close to the world famous former president nixion library. close to theme parks and easy excess to freeway trip to hollywood and san diego.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150539302-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>150539302</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Extremely friendly and professional</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many of times.  They are very professional and friendly.  Every time I go there I am welcomed with smiles and respect.  The rooms are always nice and squared away.  I have no complaints of this hotel.  If I had family and friends come into town I would highly recommend it to them.  Thank you for the respect and a place for me to lay my head down and relax in a comfortable enviroment. DMMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many of times.  They are very professional and friendly.  Every time I go there I am welcomed with smiles and respect.  The rooms are always nice and squared away.  I have no complaints of this hotel.  If I had family and friends come into town I would highly recommend it to them.  Thank you for the respect and a place for me to lay my head down and relax in a comfortable enviroment. DMMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r147639378-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>147639378</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>The carpet was okay. The pull out bed was comfortable. The king sized bed squeaked too much. The bathtub felt weird to stand on, it was squishy. The kitchen faucet did not move, so that was horrible in terms of washing big dishes. The cable was nice. I like the Snapped series. The free breakfast in the lobby saved me time in the morning, I liked that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded December 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2012</t>
+  </si>
+  <si>
+    <t>The carpet was okay. The pull out bed was comfortable. The king sized bed squeaked too much. The bathtub felt weird to stand on, it was squishy. The kitchen faucet did not move, so that was horrible in terms of washing big dishes. The cable was nice. I like the Snapped series. The free breakfast in the lobby saved me time in the morning, I liked that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r145752017-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>145752017</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Not Impressed</t>
+  </si>
+  <si>
+    <t>1st of all, I work for the DoubleTree by Hilton, so I know first hand how exceptional customer service is suppose to be given and how to strive to meet guest's needs no matter what the request may be to keep guests satisfied throughout their stay. I know what it takes to earn customer satisfaction and loyalty. I saw that this hotel was rated a 1 star through Priceline, but I had no other choice at the price I paid and since it was opaque reservation that I couldn't cancel, transfer, change, or get a refund on. However, I like to review hotels a chance based on my own experience rather than other guests' since everyone has different expectations.
+Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I...1st of all, I work for the DoubleTree by Hilton, so I know first hand how exceptional customer service is suppose to be given and how to strive to meet guest's needs no matter what the request may be to keep guests satisfied throughout their stay. I know what it takes to earn customer satisfaction and loyalty. I saw that this hotel was rated a 1 star through Priceline, but I had no other choice at the price I paid and since it was opaque reservation that I couldn't cancel, transfer, change, or get a refund on. However, I like to review hotels a chance based on my own experience rather than other guests' since everyone has different expectations.Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I used the laundry facility, and one of the washers started leaking water out the back. The A/C doesn't cool the room too well, just made the sound of it being on. This property has so much potential because of the amenities it has to offer, but it cannot thrive with the type of staff they have operating this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2012</t>
+  </si>
+  <si>
+    <t>1st of all, I work for the DoubleTree by Hilton, so I know first hand how exceptional customer service is suppose to be given and how to strive to meet guest's needs no matter what the request may be to keep guests satisfied throughout their stay. I know what it takes to earn customer satisfaction and loyalty. I saw that this hotel was rated a 1 star through Priceline, but I had no other choice at the price I paid and since it was opaque reservation that I couldn't cancel, transfer, change, or get a refund on. However, I like to review hotels a chance based on my own experience rather than other guests' since everyone has different expectations.
+Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I...1st of all, I work for the DoubleTree by Hilton, so I know first hand how exceptional customer service is suppose to be given and how to strive to meet guest's needs no matter what the request may be to keep guests satisfied throughout their stay. I know what it takes to earn customer satisfaction and loyalty. I saw that this hotel was rated a 1 star through Priceline, but I had no other choice at the price I paid and since it was opaque reservation that I couldn't cancel, transfer, change, or get a refund on. However, I like to review hotels a chance based on my own experience rather than other guests' since everyone has different expectations.Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I used the laundry facility, and one of the washers started leaking water out the back. The A/C doesn't cool the room too well, just made the sound of it being on. This property has so much potential because of the amenities it has to offer, but it cannot thrive with the type of staff they have operating this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r143883249-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>143883249</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>If you like dogs, you should stay here!</t>
+  </si>
+  <si>
+    <t>This is the worse hotel I've stayed in my life! The room smells like dog poops, it has stains all over the place. Even though the carpets are brown with black they look nasty dirty. They don't provide daily cleaning and I don't think they ever clean the rooms, they only make the bed when a guest leaves and that's it. My bed had hairs (from someone else) on the pillows. You can hear the dogs barking in the next room, the steps on the top floor and the air conditioned systems are super loud. I would not recommend this hotel under any circumstance. It's really nasty! No restaurant, no shop, nothing included but a dirty room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2012</t>
+  </si>
+  <si>
+    <t>This is the worse hotel I've stayed in my life! The room smells like dog poops, it has stains all over the place. Even though the carpets are brown with black they look nasty dirty. They don't provide daily cleaning and I don't think they ever clean the rooms, they only make the bed when a guest leaves and that's it. My bed had hairs (from someone else) on the pillows. You can hear the dogs barking in the next room, the steps on the top floor and the air conditioned systems are super loud. I would not recommend this hotel under any circumstance. It's really nasty! No restaurant, no shop, nothing included but a dirty room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r132174325-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>132174325</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Bang for your buck</t>
+  </si>
+  <si>
+    <t>Extended Stay is like our second home.  Jaime, who works at the front desk is always very helpful and takes good care of us.  Whenever we see him to check into our room, he always has a smile on his face and ready to cater our needs.  He's pretty awesome!!! Businesses need more guys like him.  The newly renovated hotel is awesome.  It's always spotless. There's a fridge, stove, microwave, utensils, coffee maker, and sink.  Feels like you're at home.  It's reasonably priced and a very comfortable stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Brea, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Extended Stay is like our second home.  Jaime, who works at the front desk is always very helpful and takes good care of us.  Whenever we see him to check into our room, he always has a smile on his face and ready to cater our needs.  He's pretty awesome!!! Businesses need more guys like him.  The newly renovated hotel is awesome.  It's always spotless. There's a fridge, stove, microwave, utensils, coffee maker, and sink.  Feels like you're at home.  It's reasonably priced and a very comfortable stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131864366-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>131864366</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>Several things made our visit terrible: First, the hotel oversold its rooms. We checked in and instead of our King with sofa sleeper, we had to divide our family into two rooms. Second, I kept finding other people's hair all over the room. Nothing skeeves me out like other people's hair. The last straw was when I went to dry my coffee mug and there was a long, black hair on the dish towel. Third, we were overcharged for the privilege of using the second room that we would not have needed in the first place if they hadn't oversold the hotel. I was happy to find that type of hotel at the rate we got because we were in town for a tournament. We are also Disney AP holders and the hotel is not so far from the park as to make a weekend out of it. Unfortunately, we won't be using this hotel again. Despite the friendly staff and free WiFi, I can't justify staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Several things made our visit terrible: First, the hotel oversold its rooms. We checked in and instead of our King with sofa sleeper, we had to divide our family into two rooms. Second, I kept finding other people's hair all over the room. Nothing skeeves me out like other people's hair. The last straw was when I went to dry my coffee mug and there was a long, black hair on the dish towel. Third, we were overcharged for the privilege of using the second room that we would not have needed in the first place if they hadn't oversold the hotel. I was happy to find that type of hotel at the rate we got because we were in town for a tournament. We are also Disney AP holders and the hotel is not so far from the park as to make a weekend out of it. Unfortunately, we won't be using this hotel again. Despite the friendly staff and free WiFi, I can't justify staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131765899-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>131765899</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Couldn't ask for more!!</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times within the last month &amp; a half and so far my experience was always pleasant!! What more can you ask for low rate (considering there's a kitchenette, complimentary b-fast &amp; internet although the internet was a lil slow at times). They have a great staff (very courteous and friendly). Check in process was also very prompt &amp; rooms are always clean. You're always going to have those people who are never satisified and will do anything to get a free night, UNFORTUNATELY no matter what hotel you stay at whether it be the Hilton (esp in this economy) and I have experienced other guests yell at the poor staff, my advice is to just suck it up and continue to do what you all do and keep up the good work!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times within the last month &amp; a half and so far my experience was always pleasant!! What more can you ask for low rate (considering there's a kitchenette, complimentary b-fast &amp; internet although the internet was a lil slow at times). They have a great staff (very courteous and friendly). Check in process was also very prompt &amp; rooms are always clean. You're always going to have those people who are never satisified and will do anything to get a free night, UNFORTUNATELY no matter what hotel you stay at whether it be the Hilton (esp in this economy) and I have experienced other guests yell at the poor staff, my advice is to just suck it up and continue to do what you all do and keep up the good work!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131201198-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>131201198</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>My Compliments</t>
+  </si>
+  <si>
+    <t>The new look for Extended Stay America is incredible. Free Wi-Fi, coffee in the morning, upgraded rooms. I have stayed many times at various Extended Stay Americas, and it has always been pleasant, but even more so now!I do want to compliment Jaime at the front desk in Brea. He is so professional, sweet and accommodating. He always has a smile and a kind word for his guests. He is an asset to the Company.Thank you, Arlene B.MoreShow less</t>
+  </si>
+  <si>
+    <t>The new look for Extended Stay America is incredible. Free Wi-Fi, coffee in the morning, upgraded rooms. I have stayed many times at various Extended Stay Americas, and it has always been pleasant, but even more so now!I do want to compliment Jaime at the front desk in Brea. He is so professional, sweet and accommodating. He always has a smile and a kind word for his guests. He is an asset to the Company.Thank you, Arlene B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r130305892-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>130305892</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Horrible front office staff.never again</t>
+  </si>
+  <si>
+    <t>The most horrible experience I've ever had at checking in was here. I am a frequent business traveler and was my bad luck I checked in here. At checkin I gave my credit card and the lady at the checking counter said, I don't know if this card belongs to you. Could be stolen! So I need to speak to your bank to confirm you are who you r saying you are and if this card is yours. This is after we had given her our ids! The silly woman treated us shabbily like we were some theifs! I mean I was livid! She wasted 30 mins with her rubbish. As a result we had to remove this extended stay from our list of hotels to stay in Brea for our company's list. We just saved some 28 people from our co from booking this place which treats guests so shabbily. I should have probably charged these guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>The most horrible experience I've ever had at checking in was here. I am a frequent business traveler and was my bad luck I checked in here. At checkin I gave my credit card and the lady at the checking counter said, I don't know if this card belongs to you. Could be stolen! So I need to speak to your bank to confirm you are who you r saying you are and if this card is yours. This is after we had given her our ids! The silly woman treated us shabbily like we were some theifs! I mean I was livid! She wasted 30 mins with her rubbish. As a result we had to remove this extended stay from our list of hotels to stay in Brea for our company's list. We just saved some 28 people from our co from booking this place which treats guests so shabbily. I should have probably charged these guys!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2919,6289 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>283</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>308</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>309</v>
+      </c>
+      <c r="X32" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>313</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>317</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>326</v>
+      </c>
+      <c r="X34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>330</v>
+      </c>
+      <c r="J35" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>332</v>
+      </c>
+      <c r="L35" t="s">
+        <v>333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>317</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>334</v>
+      </c>
+      <c r="X35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>338</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>341</v>
+      </c>
+      <c r="X36" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L37" t="s">
+        <v>348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>349</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" t="s">
+        <v>357</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>358</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>359</v>
+      </c>
+      <c r="X38" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" t="s">
+        <v>364</v>
+      </c>
+      <c r="K39" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s">
+        <v>366</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>367</v>
+      </c>
+      <c r="X39" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" t="s">
+        <v>373</v>
+      </c>
+      <c r="L40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>375</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" t="s">
+        <v>378</v>
+      </c>
+      <c r="K41" t="s">
+        <v>379</v>
+      </c>
+      <c r="L41" t="s">
+        <v>380</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>381</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" t="s">
+        <v>385</v>
+      </c>
+      <c r="K42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L42" t="s">
+        <v>387</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>381</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>133</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>396</v>
+      </c>
+      <c r="J44" t="s">
+        <v>397</v>
+      </c>
+      <c r="K44" t="s">
+        <v>398</v>
+      </c>
+      <c r="L44" t="s">
+        <v>399</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>400</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>403</v>
+      </c>
+      <c r="K45" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" t="s">
+        <v>405</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>406</v>
+      </c>
+      <c r="O45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>406</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>414</v>
+      </c>
+      <c r="J47" t="s">
+        <v>415</v>
+      </c>
+      <c r="K47" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s">
+        <v>417</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>349</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>349</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>424</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" t="s">
+        <v>426</v>
+      </c>
+      <c r="K49" t="s">
+        <v>427</v>
+      </c>
+      <c r="L49" t="s">
+        <v>428</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>429</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>430</v>
+      </c>
+      <c r="X49" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s">
+        <v>437</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>429</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>438</v>
+      </c>
+      <c r="X50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
+        <v>445</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>454</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>455</v>
+      </c>
+      <c r="X52" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>458</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>459</v>
+      </c>
+      <c r="J53" t="s">
+        <v>460</v>
+      </c>
+      <c r="K53" t="s">
+        <v>461</v>
+      </c>
+      <c r="L53" t="s">
+        <v>462</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>463</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>464</v>
+      </c>
+      <c r="X53" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>467</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>468</v>
+      </c>
+      <c r="J54" t="s">
+        <v>469</v>
+      </c>
+      <c r="K54" t="s">
+        <v>470</v>
+      </c>
+      <c r="L54" t="s">
+        <v>471</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>472</v>
+      </c>
+      <c r="X54" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>476</v>
+      </c>
+      <c r="J55" t="s">
+        <v>477</v>
+      </c>
+      <c r="K55" t="s">
+        <v>478</v>
+      </c>
+      <c r="L55" t="s">
+        <v>479</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>480</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>481</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>485</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>488</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>489</v>
+      </c>
+      <c r="X56" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>492</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>493</v>
+      </c>
+      <c r="J57" t="s">
+        <v>494</v>
+      </c>
+      <c r="K57" t="s">
+        <v>495</v>
+      </c>
+      <c r="L57" t="s">
+        <v>496</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>497</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>498</v>
+      </c>
+      <c r="X57" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+      <c r="L58" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>497</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>506</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>507</v>
+      </c>
+      <c r="J59" t="s">
+        <v>508</v>
+      </c>
+      <c r="K59" t="s">
+        <v>509</v>
+      </c>
+      <c r="L59" t="s">
+        <v>510</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>511</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>512</v>
+      </c>
+      <c r="J60" t="s">
+        <v>513</v>
+      </c>
+      <c r="K60" t="s">
+        <v>514</v>
+      </c>
+      <c r="L60" t="s">
+        <v>515</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>516</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>518</v>
+      </c>
+      <c r="J61" t="s">
+        <v>519</v>
+      </c>
+      <c r="K61" t="s">
+        <v>520</v>
+      </c>
+      <c r="L61" t="s">
+        <v>521</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>522</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>523</v>
+      </c>
+      <c r="J62" t="s">
+        <v>524</v>
+      </c>
+      <c r="K62" t="s">
+        <v>525</v>
+      </c>
+      <c r="L62" t="s">
+        <v>526</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>527</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>528</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>529</v>
+      </c>
+      <c r="J63" t="s">
+        <v>530</v>
+      </c>
+      <c r="K63" t="s">
+        <v>531</v>
+      </c>
+      <c r="L63" t="s">
+        <v>532</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>527</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>533</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>534</v>
+      </c>
+      <c r="J64" t="s">
+        <v>535</v>
+      </c>
+      <c r="K64" t="s">
+        <v>536</v>
+      </c>
+      <c r="L64" t="s">
+        <v>537</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>527</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>539</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>540</v>
+      </c>
+      <c r="J65" t="s">
+        <v>541</v>
+      </c>
+      <c r="K65" t="s">
+        <v>542</v>
+      </c>
+      <c r="L65" t="s">
+        <v>543</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" t="s">
+        <v>547</v>
+      </c>
+      <c r="L66" t="s">
+        <v>548</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>549</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>551</v>
+      </c>
+      <c r="J67" t="s">
+        <v>552</v>
+      </c>
+      <c r="K67" t="s">
+        <v>553</v>
+      </c>
+      <c r="L67" t="s">
+        <v>554</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>555</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>556</v>
+      </c>
+      <c r="J68" t="s">
+        <v>557</v>
+      </c>
+      <c r="K68" t="s">
+        <v>558</v>
+      </c>
+      <c r="L68" t="s">
+        <v>559</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>560</v>
+      </c>
+      <c r="X68" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>563</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>564</v>
+      </c>
+      <c r="J69" t="s">
+        <v>565</v>
+      </c>
+      <c r="K69" t="s">
+        <v>566</v>
+      </c>
+      <c r="L69" t="s">
+        <v>567</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>568</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>569</v>
+      </c>
+      <c r="X69" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>572</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>573</v>
+      </c>
+      <c r="J70" t="s">
+        <v>574</v>
+      </c>
+      <c r="K70" t="s">
+        <v>575</v>
+      </c>
+      <c r="L70" t="s">
+        <v>576</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>577</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>578</v>
+      </c>
+      <c r="X70" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>581</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>582</v>
+      </c>
+      <c r="J71" t="s">
+        <v>583</v>
+      </c>
+      <c r="K71" t="s">
+        <v>584</v>
+      </c>
+      <c r="L71" t="s">
+        <v>585</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>578</v>
+      </c>
+      <c r="X71" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>588</v>
+      </c>
+      <c r="J72" t="s">
+        <v>589</v>
+      </c>
+      <c r="K72" t="s">
+        <v>590</v>
+      </c>
+      <c r="L72" t="s">
+        <v>591</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>578</v>
+      </c>
+      <c r="X72" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>593</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>594</v>
+      </c>
+      <c r="J73" t="s">
+        <v>595</v>
+      </c>
+      <c r="K73" t="s">
+        <v>596</v>
+      </c>
+      <c r="L73" t="s">
+        <v>597</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>598</v>
+      </c>
+      <c r="O73" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>599</v>
+      </c>
+      <c r="X73" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>603</v>
+      </c>
+      <c r="J74" t="s">
+        <v>604</v>
+      </c>
+      <c r="K74" t="s">
+        <v>605</v>
+      </c>
+      <c r="L74" t="s">
+        <v>606</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>607</v>
+      </c>
+      <c r="O74" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>608</v>
+      </c>
+      <c r="X74" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>611</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>612</v>
+      </c>
+      <c r="J75" t="s">
+        <v>613</v>
+      </c>
+      <c r="K75" t="s">
+        <v>614</v>
+      </c>
+      <c r="L75" t="s">
+        <v>615</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>616</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>618</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>619</v>
+      </c>
+      <c r="J76" t="s">
+        <v>620</v>
+      </c>
+      <c r="K76" t="s">
+        <v>621</v>
+      </c>
+      <c r="L76" t="s">
+        <v>622</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>623</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>625</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>626</v>
+      </c>
+      <c r="J77" t="s">
+        <v>627</v>
+      </c>
+      <c r="K77" t="s">
+        <v>628</v>
+      </c>
+      <c r="L77" t="s">
+        <v>629</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>630</v>
+      </c>
+      <c r="O77" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>631</v>
+      </c>
+      <c r="X77" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>634</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>635</v>
+      </c>
+      <c r="J78" t="s">
+        <v>636</v>
+      </c>
+      <c r="K78" t="s">
+        <v>637</v>
+      </c>
+      <c r="L78" t="s">
+        <v>638</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>630</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>640</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>641</v>
+      </c>
+      <c r="J79" t="s">
+        <v>642</v>
+      </c>
+      <c r="K79" t="s">
+        <v>643</v>
+      </c>
+      <c r="L79" t="s">
+        <v>644</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>630</v>
+      </c>
+      <c r="O79" t="s">
+        <v>90</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>631</v>
+      </c>
+      <c r="X79" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>646</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>647</v>
+      </c>
+      <c r="J80" t="s">
+        <v>648</v>
+      </c>
+      <c r="K80" t="s">
+        <v>649</v>
+      </c>
+      <c r="L80" t="s">
+        <v>650</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>651</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>652</v>
+      </c>
+      <c r="J81" t="s">
+        <v>653</v>
+      </c>
+      <c r="K81" t="s">
+        <v>654</v>
+      </c>
+      <c r="L81" t="s">
+        <v>655</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>656</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>657</v>
+      </c>
+      <c r="X81" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>660</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>661</v>
+      </c>
+      <c r="J82" t="s">
+        <v>662</v>
+      </c>
+      <c r="K82" t="s">
+        <v>663</v>
+      </c>
+      <c r="L82" t="s">
+        <v>664</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>656</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>665</v>
+      </c>
+      <c r="X82" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>668</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>669</v>
+      </c>
+      <c r="J83" t="s">
+        <v>670</v>
+      </c>
+      <c r="K83" t="s">
+        <v>671</v>
+      </c>
+      <c r="L83" t="s">
+        <v>672</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>673</v>
+      </c>
+      <c r="X83" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>676</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" t="s">
+        <v>678</v>
+      </c>
+      <c r="K84" t="s">
+        <v>679</v>
+      </c>
+      <c r="L84" t="s">
+        <v>680</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>681</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>682</v>
+      </c>
+      <c r="X84" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>685</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>686</v>
+      </c>
+      <c r="J85" t="s">
+        <v>687</v>
+      </c>
+      <c r="K85" t="s">
+        <v>688</v>
+      </c>
+      <c r="L85" t="s">
+        <v>689</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>681</v>
+      </c>
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>690</v>
+      </c>
+      <c r="X85" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>693</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>694</v>
+      </c>
+      <c r="J86" t="s">
+        <v>695</v>
+      </c>
+      <c r="K86" t="s">
+        <v>696</v>
+      </c>
+      <c r="L86" t="s">
+        <v>697</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>698</v>
+      </c>
+      <c r="X86" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>701</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>702</v>
+      </c>
+      <c r="J87" t="s">
+        <v>703</v>
+      </c>
+      <c r="K87" t="s">
+        <v>704</v>
+      </c>
+      <c r="L87" t="s">
+        <v>705</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>706</v>
+      </c>
+      <c r="O87" t="s">
+        <v>90</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>707</v>
+      </c>
+      <c r="X87" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>710</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>711</v>
+      </c>
+      <c r="J88" t="s">
+        <v>712</v>
+      </c>
+      <c r="K88" t="s">
+        <v>713</v>
+      </c>
+      <c r="L88" t="s">
+        <v>714</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>715</v>
+      </c>
+      <c r="O88" t="s">
+        <v>133</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>716</v>
+      </c>
+      <c r="X88" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>719</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>720</v>
+      </c>
+      <c r="J89" t="s">
+        <v>721</v>
+      </c>
+      <c r="K89" t="s">
+        <v>722</v>
+      </c>
+      <c r="L89" t="s">
+        <v>723</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>724</v>
+      </c>
+      <c r="X89" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>727</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>728</v>
+      </c>
+      <c r="J90" t="s">
+        <v>729</v>
+      </c>
+      <c r="K90" t="s">
+        <v>730</v>
+      </c>
+      <c r="L90" t="s">
+        <v>731</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>732</v>
+      </c>
+      <c r="O90" t="s">
+        <v>90</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>733</v>
+      </c>
+      <c r="X90" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>736</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>737</v>
+      </c>
+      <c r="J91" t="s">
+        <v>738</v>
+      </c>
+      <c r="K91" t="s">
+        <v>739</v>
+      </c>
+      <c r="L91" t="s">
+        <v>740</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>741</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>742</v>
+      </c>
+      <c r="X91" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>745</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>746</v>
+      </c>
+      <c r="J92" t="s">
+        <v>747</v>
+      </c>
+      <c r="K92" t="s">
+        <v>748</v>
+      </c>
+      <c r="L92" t="s">
+        <v>749</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>750</v>
+      </c>
+      <c r="X92" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>753</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>754</v>
+      </c>
+      <c r="J93" t="s">
+        <v>755</v>
+      </c>
+      <c r="K93" t="s">
+        <v>756</v>
+      </c>
+      <c r="L93" t="s">
+        <v>757</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>758</v>
+      </c>
+      <c r="O93" t="s">
+        <v>90</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>750</v>
+      </c>
+      <c r="X93" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>760</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>761</v>
+      </c>
+      <c r="J94" t="s">
+        <v>762</v>
+      </c>
+      <c r="K94" t="s">
+        <v>763</v>
+      </c>
+      <c r="L94" t="s">
+        <v>764</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>765</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>750</v>
+      </c>
+      <c r="X94" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>767</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>768</v>
+      </c>
+      <c r="J95" t="s">
+        <v>769</v>
+      </c>
+      <c r="K95" t="s">
+        <v>770</v>
+      </c>
+      <c r="L95" t="s">
+        <v>771</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>765</v>
+      </c>
+      <c r="O95" t="s">
+        <v>133</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>750</v>
+      </c>
+      <c r="X95" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>773</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>774</v>
+      </c>
+      <c r="J96" t="s">
+        <v>775</v>
+      </c>
+      <c r="K96" t="s">
+        <v>776</v>
+      </c>
+      <c r="L96" t="s">
+        <v>777</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>758</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>778</v>
+      </c>
+      <c r="X96" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="875">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ConVivo</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Okay, it was not totally disappointing  but it was serviceable at best.  Room looks like they did a minor remodel (paint and carpet) but the kitchenette just looks old as does the bathroom. There were no plates or pans for me to cook.   More</t>
   </si>
   <si>
+    <t>dougw909</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r560365969-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>The staff were nice.  But... there was mold in the grout in the shower, on top of the shower tile and in the toilet bowl.  There were hairs from someone in the bathtub.  Had to request plates, glasses and flat wear that were delivered in a rolling dirty linen basket.  The rug was filthy with spots all over it.  the room I requested was supposed to have been non-smoking... the room reeked of smoke.  I took pictures of the mold in shower and toilet and of the hairs in the bath tub.  My belief is that the room is a bio-hazard, dangerous to guests and staff alike.  Strongly recommend avoiding this hotel until all rooms have been declared safe by the appropriate government agency.More</t>
   </si>
   <si>
+    <t>Angela P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r559661573-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>WiFi didn’t work. Informed staff, they said it was a setting problem and then ignored me when I told them it still wasn’t working. “Breakfast included” is a granola bar. AC was loud. Wish I stayed elsewhere. More</t>
   </si>
   <si>
+    <t>deniselM9464LI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r548550737-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Brae is a great location, near shopping and clean and safe. I can here due to relocation and job searching and took the time to stay 2 weeks. It felt like a home. I would come again. Staff are friendly and area is near business park off roads to do some walking for exercise. It also has an exercise room!More</t>
   </si>
   <si>
+    <t>karentW473RA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r548155025-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Don't check in here EVER, obviously they do not check on the staff they hire to run their business. They weren't friendly when we checked in, the room was NOT ready when they said it was. Housekeeping  the bed sheets were not clean, had to be replaced. Please stay somewhere else. You will be glad you did.More</t>
   </si>
   <si>
+    <t>nagendrababuc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r547124314-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Lot of nocie coming forom the nex tdoor  The rest room does not have cap to the tub  CUrtain are not good  dog barking from next door  TV noice audiblefrom next room  Request for  minimum utewncils and bowlsMore</t>
   </si>
   <si>
+    <t>Korriana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r535157659-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>Had to stay here for a week and it was disgusting. The bathroom was nasty and there was dust and hair everywhere. The sheets were dirty and full of hair so i called to get new ones. The front desk made me walk to then, which is inconvenient because i had to bring my 2 month old and 5 year old. The stove is only a two top, no dishwasher or oven. Small sink. Lighting is bad and you feel like your in a motel. Parking is free. They serve a quick grab and go breakfast that i did not experience. Going here you save a bit, but i would rather pay a little extra for a clean place. More</t>
   </si>
   <si>
+    <t>samadi d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r531826048-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>We stayed here out of necessity, the hotel it self is located in a well lit area, near many restaurants and stores. They also provide a very minimal kitchen and accept pets. This was the main reason for our stay. We were on the second floor and outside many of the doors were dirty dishes from previous guests that had used the kitchen. The floor was very dirty and littered with cigarette butts all around. Once in side the room, it was just ok. The bed seemed clean, but the furnishings and cardboard advertisements were dirty. The toilet had a black ring around it, and so did the shower. I COULD NOT wait to check out! We hardly slept and will NEVER stay here again.More</t>
   </si>
   <si>
+    <t>wallsko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r531407161-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Bed had hair all over it. Bathroom was dirty. Room smelled bad. Floor was disgusting. There was dust everywhere. I will never stay here again. I was highly disappointed. We called about a broken tv and it was never fixed. Had to go get new sheets myself because they were dirty with hair and the lady was lazy. More</t>
   </si>
   <si>
+    <t>ralporque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r530189510-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>The booking was easy, confirmation and check in was top notch. Staff was pleasant, room was nice and clean when I got there. All-Around I had a very enjoyable and stress-free time staying with Extended Stay America... I would recommend this again and again.More</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r522003108-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>The outside of the hotel is dirty.  Cigarette butts are scattered throughout the grounds.  The bathtub had mold and rust stains.  There was a glob of dried hair on the tub wall from previous guest.  The carpet had large black stains.  This hotel was listed as a 2 1/2 star level but it is more like a 1 star motel.More</t>
   </si>
   <si>
+    <t>Patty D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r510379292-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>Not clean, they wouldn't clean, rude employees (not all, but some) you have to bring your dirty towels and sheets to office to exchange for clean ones and make your own bed. Hotel is in bad shape with stained carpets and pealing paint. Could not be worse.More</t>
   </si>
   <si>
+    <t>David T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r507454329-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -507,6 +546,9 @@
     <t>The overall condition of the room was on UNACCEPTABLE .  For example the room had a major pet odor with feline hair throughout the room floor trash swept in a corner bathroom counter and tubs not clean bed Linings with visible human and feline hair on the bed padding.   Exterior portion of stairs and hallways were extremely filthy More</t>
   </si>
   <si>
+    <t>72alysiah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r506056714-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>Front desk staff was rude, rooms look and smell terrible, rooms are outdated. During our stay the fire alarms went off for hours one morning, would not stay here ever again. If you can, avoid this place at all costMore</t>
   </si>
   <si>
+    <t>299coreyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r505486722-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>Tv volume is set to low max wise so you have to choose between having air conditioner on or hear the tv because with air on you can't hear tv so I seen that as a big no no especially for the price. I can pay less for no problems at other motel or hotelsMore</t>
   </si>
   <si>
+    <t>chairina2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r503517728-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>The room had broken cabinet door just hanging sideways, shower had very visible mildew between tiles, missing hair dryer with its holder still attached to the wall. Few guests with pitbuls and other dogs (scared us in the reception room). The front desk clerk also acted as the room service and we did not see any other people working there. We would have moved but it was late at night. Will never stay in this hellhole again.More</t>
   </si>
   <si>
+    <t>Sachin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r503031188-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>Checked in for one night . It's convenient for near buy business. No kitchen utensils we're available , not even single tumbler. Some strange noice was coming trough the roof. The room I was in was not in great shape was giving feeling like cheap motel. Fridge was clean .breakfast was as usual muffins and some granola bars with tea and coffee. Over all in comparison to other extended stays this one was less than  averageMore</t>
   </si>
   <si>
+    <t>299latashak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r502600865-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>Just plain horrible!!! Rooms were smoke filled although i asked for non smoking- child has asthma so this  was very important- our tub was dirty and the acrylic had been peeled away showing the metal - I was truly disgusted! More</t>
   </si>
   <si>
+    <t>netsyanissa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r501058067-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>Don't ever stay in this property.  It's disgusting!!! Homeless people and drug addicts live in the property. Everything was broken in our room and the homeless guy staying in the room next door was smoking all night.More</t>
   </si>
   <si>
+    <t>68diemp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r498441853-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -678,6 +738,9 @@
     <t>Location was safe and perfect for me - 5 minutes from where i needed to be. Parking was easy and at the corner so getting in and out of the lot was easy. Room was good size and reasonably clean. Price was cheap and last minute booking too.More</t>
   </si>
   <si>
+    <t>Tole B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r497722748-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>This place is a disaster! Room is dirty, toilet dirty, kitchen and microwave dirty.I checked out the next day as the toilet was clogged and smelling all night long. The bed was hard as a stone, sheets are dirty, not fresher.More</t>
   </si>
   <si>
+    <t>X3590QMmariof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r490537371-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>The room I staid seem not to ever been updated or worked on. Was very dusty, towel rack very rusty. When I asked if there was a different room perhaps in better condition, I was told all the rooms were in the same condition.More</t>
   </si>
   <si>
+    <t>vanessa931</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r484793674-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>On prior occasions, we stayed at the Chase Hotel which is next door, and it was really nice.  Couldn't get a room there so we booked at this hotel.  The outside looked presentable.  We were given a second story room and along the wall and in a corner were rodent droppings!  Housekeeping was called and she shrugged her shoulders.  The manager wasn't around and the front staff clerk was clueless about what to do.  Never offered a refund.  Never offered another room.  We ran as fast as we could.  Terrible place.VanessaMore</t>
   </si>
   <si>
+    <t>Julie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r482632164-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>Needless to say, we only live a few miles away, but stayed a couple nights for our Son's wedding.   This hotel should be shut down and rehabilitated before they book anymore guests.   Gurgling bathtub with water and debris and a sewer stench, the kitchen is a fire hazard.  The burners were old and rusted.  The counter top was peeling and sharp.  We expected a lot more considering the location.DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>Tracy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r477099009-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -804,6 +879,9 @@
     <t>Our room was extremely dirty. My socks were black from walking on the floor. Both the tub and the kitchen sink had black filth in them. The walls look like they have never been wiped down. There was an inch of dirt around the toilet area. We stayed for four nights and our room was never cleaned, no fresh towels were given.  When I called the front desk for clean towels, they brought two towels, no wash cloths or hand towels. The TV is bolted down so it can not be moved to a location on the dresser where it could be viewed from the bed. Only one of us could see if when lying in the bed, it was blocked by the closet. There is not a breakfast as advertised, only muffins and coffee for a very limited time in the morning. I was charged more for a hot breakfast on the site I used, very deceptive on their part.More</t>
   </si>
   <si>
+    <t>Deborah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r474212340-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -828,6 +906,9 @@
     <t>Horrible experience. Horrible rooms. Had to make numerous requests for basic thing like toilet paper, kitchen utensils and a non working TV.. The pull out couch to make into a bed was so gross, I would not put my worst enemy to sleep on it.More</t>
   </si>
   <si>
+    <t>Harold-ang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r461045147-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -855,6 +936,9 @@
     <t>it is quite ok for staying there, the overall quality is ok, and the place is clean for accomodation. only the air conditioning is quite noisy. the services are ok, and they are friendly to customers.More</t>
   </si>
   <si>
+    <t>jllaneee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r422110951-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -877,6 +961,9 @@
   </si>
   <si>
     <t>Stayed here last night and thank goodness it was only for the night. At check in around 5 o'clock the trash cans by the stairs were completely full and over flowing. We had to kick things out of the way to get up the stairs, that wasn't cleaned up until this morning. Inside the room was absolutely disgusting. Stains on the sheet and on the pull out bed in the couch. There were no extra sheets or blankets. There were black stains in the shower that could have been black mold and the hair dryer was not working. The worst was there was a nail sticking out of the carpet. Not a good way to wake up with a sharp pain in your foot as soon as you stand up and also VERY DANGEROUS for my four year old niece. Now I feel disgusting before my four hour drive home.More</t>
+  </si>
+  <si>
+    <t>gonzo628</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r417479287-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -907,6 +994,9 @@
 The room did not give the appearance of being clean...I booked through Priceline "Express Deals".  My wife has a system where she can be almost certain about which hotel is offering the rate we are about to book.  Well, knowing our possible options, we took the gamble (we lost) and booked the room.  The hotel has a very "Motel 6" feel to it.  It does have a small kitchenette, but is cheaply put together.  The cabinets were all white and chewed / marred up on the ends.  The Fridge was noisy and the Microwave (a counter-top model) was installed as though it were a "space-saver" model (drilled right through the top of the microwave into the hanging cabinet.The whole room was an interesting experiment in decent quality married with cheap left overs.  The bathroom counter was granite (though thin) and set on those same cheap, white cabinets.  The counter was low on one side, or the back-splash was not installed right. There was a 3/8 inch gap between the counter and the splash (3/16 of which was filled with caulk).  The toilet had a front mounted flush lever, but it was a replacement for the side-mounted lever, which was no longer installed.  To address the change in tank, they filled the side-mount hole with some red epoxy or something.  There were wood-look floors in the bathroom and kitchenette, and what probably was nice carpet when it was installed.The room did not give the appearance of being clean (so much so that the only time I walked on the carpet socks was when I was on my way to take a shower (then I made sure my new socks and shoe were in the bathroom with me.  We ended up in a king / sleeper sofa room, and the front desk advised that there weren't any sheets on the sofa sleeper, but that she would bring them by in a bit.  As we prepped the room for sleeping, we pulled the sofa-bed out and found the mattress to be dingy and stained.As has been said previously, the pillows are uncomfortable and sparse.  The towels are small and rough.More</t>
   </si>
   <si>
+    <t>Jeffrey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r416825554-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -931,6 +1021,9 @@
     <t>Bring extra pillows and bigger towels!!When in the area don't pay the daily rate, always check Priceline.  The towels are small and pillows are uncomfortable. Only three for one bed. This was a budget property before they changed the name.  Overall it's a great for a quick stopover.  Has a kitchen but you now need to pay for anything you need in it.More</t>
   </si>
   <si>
+    <t>SCL94556</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r385069905-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -958,6 +1051,9 @@
     <t>I stayed here one night for a business trip, and the rate was quite low.  The rooms open on to an exterior hall/balcony and the place is best described as a motel.  The rooms were small, bare bones and have seen much better days.  Although not dirty, the room was kind of dingy.  The sheets, towels, amenities were definitely of a lower tier.  No desk or task light for getting work done.  Little things signaled a lack of care or upkeep.  The hinges on the refrigerator door had not been swapped to the opposite side so that the only way to get into the fridge was to reach over the open door (a small eating bar blocked access from the front).  The cabinet doors wouldn't close completely.  This is just a place to bed down for the night.  On the plus side, the guys at the desk were very friendly and efficient.  Jared at the front desk was great.More</t>
   </si>
   <si>
+    <t>mhorne182</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r378856594-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -983,6 +1079,9 @@
   </si>
   <si>
     <t>This hotel was one of the dirtiest places I have ever stayed.  The carpet was stained, the room smelled awful, the towels had stains, there were hairballs on the towels, the floor and cabinets were falling apart.  Our bed blanket had cigarette burns on it.  You could not even walk on the carpet without shoes it was so gross.  There was un-vacuumed junk on the floor when we first checked in.  It almost feels like the room was not cleaned prior to our arrival.  There is breakfast but it consists of oatmeal packs, small packaged muffins, and hard oranges.  Very basic, but better than nothing I guess.  We were charged extra each night to "upgrade" to a double bed room.  All in all, the hotel is pretty gross and smells bad.  Many of the issues could only be solved by a complete overhaul of the building and rooms, but the basic housekeeping mistakes need to be fixed.  The positives are the staff.  They were very helpful for us and assisted us when we needed it.  Also, the wifi is free and the beds were fairly comfortable and pretty new which was welcome with the condition of everything else.More</t>
+  </si>
+  <si>
+    <t>alanrrt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r377055241-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -1011,6 +1110,9 @@
 After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything,...I had a major flood in my condo, and have had to hotel it for the last few weeks while repairs are being done.  After taking an already planned vacation to Hawaii, and staying in a Marriott hotel there, I made the mistake of choosing Extended Stay when I got home.  Someone suggested we stay here (I can't remember who, but I owe them a wedgie) because we wanted a place that we could cook in, since we were getting tired of eating out all the time.  It was one of those "it sounded like a good idea at the time" moments.After about a 5 1/2 hour flight and drive from Los Angeles airport, we got to the hotel about 10:30 pm.  The parking lot was full, so we had to park in the back and walk all the way around to the lobby.  There was nobody in the lobby at the time, so I called and she came in.  My first impression that something was wrong was the sign in the lobby stating that the police could inspect the guest register at any time.  Then the rules of the place: no housekeeping.  If you want clean towels, you have to bring your old ones to the lobby and exchange them.  Choose the cooking utensils you want, and they'll be delivered the next morning.  There is a cheery little sign in the lobby saying that if you need anything, just ask.  Like I have to ASK to get clean towels?On our way to the room, we passed by some sketchy looking characters hanging around.  Then I see a police car come cruising through.We get in the room, and it's reasonably clean.  The towels feel like sandpaper.  Turn over in the bed, and it sounds like bubble wrap popping.  My wife described the feel of the bed as being like a full diaper.  In an allegedly non-smoking room, there were cigarette burns on the bathroom counter.  The bathroom sink is cracked and has large chips in it.  Nice black spot in the bathtub, although it could have been (I hope it was) from my wife's feet after walking barefoot on the beach in Hawaii before we left.The next morning, I did what I should have done to start with: check the reviews on Yelp.  I found that my experience was not unique, and was likely to get worse.I had reserved a week, but already decided to check out.  Being Thursday before a long weekend, I checked one hotel to find that it was full, and was scared that we may have to stay through the weekend. I fortunately found another hotel that had a vacancy, and booked it.I got a call asking if it was a good time to bring the cooking utensils that I'd requested, and I politely declined, saying that I was checking out.  The manager called me shortly after and asked why we were checking out (as if he is really that clueless) and I told him exactly why.  Rather than offer an apology, he argued with me.My first question on leaving the room was "Is my car still there?"  It was.  And someone had used it to dispose of their coffee.Extended Stay management, don't bother responding to this review.  You say the same thing on every negative review (and there are many of them), going back at least four years, and nothing changes.  It's obvious that you just don't care.More</t>
   </si>
   <si>
+    <t>Aaron D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r374095683-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1035,6 +1137,9 @@
     <t>My wife and I have been here for 8 months now waiting on a condo to get built, during this time Jared the manager has been nothing but a fine gentleman always accommodating our needs, and always keeps a clean environment. Kyle and Chris r great! More</t>
   </si>
   <si>
+    <t>SherryBoyce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r374001909-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1056,6 +1161,9 @@
     <t>My wife and i use wheelchirs and the staff is great and very helpfull. The room is very nice but could be a touch larger, it is a bit cramped for 2 wheelchairs.The restroom is large and very accessable.More</t>
   </si>
   <si>
+    <t>sexystephm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r343412722-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1083,6 +1191,9 @@
     <t>Horrible, no cleaning musky smell, the only good thing is they do allow pets for a hefty price. We were here for work for six weeks and maybe we had three housekeeping cleanings. Two days before we were scheduled to leave I noticed a drip in the ceiling, I notified front staff immediately. The next evening as I was packing our things to leave the next morning, I noticed a larger leak in a different place. I notified the front desk again. We were in a first floor room with two floors above us, when my honey arrived home from work around five pm I had placed three trash cans in different locations around the room and had emptied them twice. It seems that when the upper rooms showered we were also showered with the drain water. YUCK!! As soon as he arrived and we packed the truck we checked out and drove eight hours to our next destination and then he showered and rested. Sad they could have moved us to another room when i first reported the leak. HORRIBLE!More</t>
   </si>
   <si>
+    <t>DavidFromDenverCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r309685382-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1110,6 +1221,9 @@
     <t>We booked this place a few hours ahead of arrival on 9/11/15, no problems with that. We needed a budget place near the Nixon Presidential Library, several miles away. This is a two star place, and that is all we expected. Room 339, extended stay type kitchenette, full size refrigerator, microwave, etc, all there and working and clean. Pots and pans available upon request. The bathtub caulking had a few possible dark mold spots under the soap tray area. The bathroom fan is very noisy, there is some type of mechanical problem. The included breakfast is instant oatmeal, coffee, cupcakes, apples, and oranges, which you take to your room. We would stay there again if we were looking for that type of place.More</t>
   </si>
   <si>
+    <t>Damon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r307084698-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1134,6 +1248,9 @@
     <t>I'm very happy with my check in process in my room at the extended stay here in Brea. Kyle was very helpful professional and easy to work with. If s working you will not be disappointed with this location. I will be referring this location to all my friends and family for years to come.Damon Block(949)633-0190More</t>
   </si>
   <si>
+    <t>James F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r301831428-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1152,6 +1269,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>GIULIANA M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r285958064-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1173,6 +1293,9 @@
     <t>My house was flooded so I had to look for a place right away.  After the movers took all my furniture, along with some important documents, I was left with no passport, and I had just lost my driver license the weekend before. I hold a photo ID from the California Judicial Council for work, which is a government issued ID, but they wouldn't take it as identification.  I explained the situation to them, but the manager was totally unreasonable.  It's a shame that in a time of distress, they didn't help out and stressed me out more than I already was with my emergency.  The lobby looked dirty, so it was actually a blessing in disguise.  I wouldn't wanna stay in an outdated, nasty place like that anyway.  Luckily, I found a Residence Inn by Marriott nearby and they were more accomodating.  GMore</t>
   </si>
   <si>
+    <t>Karl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r281009402-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1188,6 +1311,9 @@
     <t>Who says it is always difficult? I had a prepaid 3 nights stay (starting June 10,2015)  and had to leave on an emergency the next morning. The asst. GM, Lupeline Tagaloa, was extremely helpful in dealing with the cancellation and refund without any questions asked or the customary 24h policy and the total amount was refunded without any penalty charge.The room was nice and clean.</t>
   </si>
   <si>
+    <t>Carol M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r275263006-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1209,6 +1335,9 @@
     <t>I was assigned this place via Expedia. It was 22 miles from the activity I was involved in. No maid service, no ice machine, no toilet paper unless you go to the front desk and ask for an extra roll! Same with towels; exchange wet ones for dry. Trash cans overflowing outside. Extra charges for dog ($150) and efficient internet ($14) made the total price close to what I would have paid at the Sheraton blocks from Fairplex. I was directed to the pet potty area where I exercised my dog only to find it COVERED with poop. Evidently I'm the only pet owner who picks up after her pet! ICK ICK ICK!The bathtub was extremely slippery and had no place to hang on to when getting in and out. I don't remember if I'd requested a handicap equipped room, but I was given an upstairs room with no grab bars in the tub which was a bit of a problem. The only downstairs room was "smoking".More</t>
   </si>
   <si>
+    <t>Mike Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r267682438-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1225,6 +1354,9 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>caryn y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r267252378-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -1258,6 +1390,9 @@
 I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my...This is my first review .. I'm not great with words .. but I REALLY felt I had to clarify.  I was nervous because of reading the privious bad reviews to stay here  .. but I'm so glad I did.                                                 First - It was surrounded by big beautiful trees, set back from the main street, very quiet and relaxing. Bed was clean and comfortableSecond - The staff was beyond attentive, kind, and worked hard to meet all my needs.Third - It's not at all in an unsafe area.  Church across the street, close to shopping. I am a middle aged female and stayed alone ... I never once felt unsafe.  I even witnessed the Brea Police patrol the parking lot a couple of time.The outside trash cans did get full and over flowed a couple of days. With over 300 rooms and people emptying there own trash .. to be expected sometimes. Never stayed full longI hope this helps you make a more informed decision.  I was extremely pleased and enjoyed being close to my daughter and new grandbaby for a couple of weeks.I would like to make a quick suggestion to the management ... it would be helpful to get a second set of coffee pots so the staff wouldn't have to spend so much time refilling.  Over half of my stay I had to wait for coffee in the morning.  I love my morning coffeeCaryn YoungMore</t>
   </si>
   <si>
+    <t>shellycox1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r265977889-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1273,6 +1408,9 @@
     <t>Have stayed at this hotel several times.  Each and every time the staff has been awesome. They are very helpful, nice and welcoming.  Rooms are comfortable and clean. It's in a great location, safe and clean.</t>
   </si>
   <si>
+    <t>penavic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r255438852-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1288,6 +1426,9 @@
     <t>Our overnight stay didn't go well.  No elevator and room was stuffy. A/C was on automatic and much too loud.  A/c kept us up all night.  this is ' you get what you paid for'  Not staying there in future!!</t>
   </si>
   <si>
+    <t>George C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r253452161-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1306,6 +1447,9 @@
     <t>This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady...This is a terrible hotel. The only things going for it were that it was cheap, in an affluent Orange County community, and part of the Extended Stay America chain. We had stayed in the Extended Stay America hotel in Huntington Beach and found it clean, in good repair, and well run, so we trusted the brand. Over the past two months we have spent 18 nights in hotels across the country. The Extended Stay America in Brea was by far the worst experience. We will never trust the brand again. We were there for three days – we prepaid for the room and could not cancel. The same cigarette butts and candy wrappers that littered the ground and stairways when we arrived were still there when we left. You take your own trash out and the trash can on the stairway landing was overflowing. One of the rooms on the first floor had sandbags stacked in a ring outside the door, supposedly because of some water problem, but they remained there during our entire stay. The bathroom was right next to the kitchenette, so when the door was open you looked in at the toilet. The enamel on the tub was chipped. The cheap wood on the bathroom counter was cracked, the ceiling was coming apart above the shower, and the faucet in the kitchenette had come loose from the sink so you had to hold the bottom steady to turn on the water. The door on the refrigerator opened on the left side next to the wall, so it was very awkward to get into – this despite the fact that the refrigerator allowed for the hinges to be placed on whichever side was appropriate. I don’t know for sure, but it seemed as though the hotel had a contract to provide housing for homeless families. The families, many with young kids, gathered at the bottom of the outside stairway, cursing, talking loudly, and smoking pot. (Probably for medical purposes, I’m sure.)  The room was supposed to be non-smoking but it reeked of tobacco, and because the doors hung open on several rooms all days, you could see people smoking inside. The children sometimes wandered unattended out into the parking lot during these times, so we had to take care not to run over one of them. During the day, the mother downstairs could be heard screaming at her pre-school children to “Shut the f*** up.” You have to take your own dirty towels and linens down to get them exchanged for clean ones. Basically, you go down to the lobby, where one of the staff throws a plastic bag across the counter and tells you to stuff your dirty linen in it to make the exchange. Although there is no cleaning service, somebody was obviously in our room during our absence because they turned off the TV and adjusted the air conditioning. (We had left the TV on to discourage theft – from other hotel guests.) I know it sounds crazy, but it’s all true. I’ve stayed in some dumps before, but never one like this. The staff seemed to be mostly young girls, who were sweet but clueless. This is not a staff problem, it’s the management.  How Extended Stay America included this site on their roster is a mystery. Never again – not at this hotel and not with any Extended Stay anywhere anytime.More</t>
   </si>
   <si>
+    <t>Jia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r252950228-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1331,6 +1475,9 @@
   </si>
   <si>
     <t>Great hotel for great price. My parents stayed here for a month after my wedding and everything went pretty good. The only thing is that their landline in the room is only free for numbers with the specified area code. We forgot about it and end up paying some extra bucks for using the phone. Make sure you check with the front desk. Overall, we really liked this place.More</t>
+  </si>
+  <si>
+    <t>Patrick_from_PA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r251374626-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -1381,6 +1528,9 @@
 11. No cups in...OK - so I will try and write a balanced review here, but the title may give away the conclusion...Challenges:1. For an extended stay hotel, the rooms are tiny. Not fun.2. Pubic hair in my sink when I arrived. Yes, you read that correctly. But given the look of the rest of the place, I am guessing it's the same in most of the rooms.3. Spaghettii sauce on the counter. Not clean.4. Odd stains on the bedspread. Ew.5. Generally chipped, cracked, scratched feel6. No maid service - not sure what gives there? Trash not taken out, bed not made. Maybe I missed something ...7. Noisy air conditioner inside ... the classic big wunka wunka wunka noise when it comes on.8. Much noisiness outside. The rooms are the type that open out on to the passageway (no internal corridor). People walking dogs in the parking lot and shouting to each other. Not much sleep.9. Poor design. Want to work in the room? Guess what - with the curtain open everyone gets to look in on you as they walk past. Really ... not even a privacy curtain.10. Despite no maid service, staff seems to come in when I am gone. They changed the setting on my air conditioner, turned my tv off when I left it on etc. Weird. Made me feel not safe / secure.11. No cups in the room. You have to ask and then they will send up a box of silverware and plates and cups and stuff. Really? At least put cups in the room guys!12. No coffee in the room13. Breakfast sucks. It is minimal ... granola bars, coffee, muffins ... don't bother14. You generally get the sense that this place is run to the absolute bare minimum possible ... no extra blankets in the room, teeny tiny shampoo ... you get the picture.15. Awful pillows.16. Crappy wardrobe area. A couple wire shelves with a stained curtain in front of them. Yeah.17. No oven - just two hotplates and a microwave. No pots and pans either - I guess that's part of the game of needing to ask for everything. Because I really want to take crappy pots and pans with me when I go home ... not.18. Free WiFi is slow and crappy. They want to upsell you to the paid WiFi. Cheapskate move.Positives:1. Parking is good2. Front desk lady was angelic - she was just on the job for a few days and was super sweet and helpful.3. Rough towels. I like rough towels. But they were a bit small. You may want to move this to the challenge area. My wife would.4. Loads of great stuff nearby. Brea is a clean, nice suburb. I loved spending some time in Craig Park on a couple of sunny mornings. They have a Trader Joes 2 minutes away down the road, good coffee shops ... you name it (except, probably for nightlife - this is a suburb after all).5. It has a fridge. OK - I know this is a stretch, but it does have a fridge. I think the inside of the fridge is the cleanest place in this whole room. I even put my cereal in there.6. I slept reasonably well. I did not get sick. I suffered no harm. But then I survived living in shared lodgings with a bunch of guys at college. This is a notch or two above that. But not much.The end.More</t>
   </si>
   <si>
+    <t>Doc552015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r249944562-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1405,6 +1555,9 @@
     <t>Booked this room for an extended business trip and am already regretting that decision. When I arrived, there was no one at the front desk and sat in the lobby for 10 minutes waiting for someone. Finally when I got to my room, there was a loud chirping of crickets coming from the refrigerator. When I shined a flashlight under there was some sort of rotting material and several MAGGOTS under the fridge. I asked to change rooms and it smells like curry in here. Wish I had not booked the non-refundable room. Please save your money and go somewhere else.More</t>
   </si>
   <si>
+    <t>TravelDeFamly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r248847447-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1430,6 +1583,9 @@
   </si>
   <si>
     <t>stay over the thanksgiving HD . room was fair but it needed some repair, but clean ,comfortable bed , bathroom was clean , right on the imperial Hwy, staff had some issues.  but all in all I had a fair stay here  and a fair rating , fair to ok value for the $More</t>
+  </si>
+  <si>
+    <t>csyankee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r243706556-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -1465,6 +1621,9 @@
 The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from...ESA had been our favorite brand and we've stayed in them across the country.  Being close to and having friends and relatives in SoCal, we frequented each the ESA in Cypress, Huntington Beach and Brea.  They were relatively clean, well maintained, nicely stocked for longer stays (cookware, cups, glasses, dishes, etc.), and priced really well (after the numerous deals and discounts).Things have changed.  When we arrived, we were told that they no longer stock the rooms but we can call down and, promptly, receive the coffee maker, glasses and plates, and so forth.  Okay, we got to the room and I wanted a drink after the six-hour drive.  Forty-five minutes later the very nice person at the front desk apologized for the delay explaining that she was the only person on duty.  There weren't, even, those crappy little plastic cups in the room.The rooms used to be respectfully clean.  This one yielded black feet.  The bed was okay and the sheets were clean.  The mattress pad was tattered and unclean.  There were no unwanted guests.  The towels were really rough.  WiFi is free but they try really hard to up-sell.  The "grab and go" breakfast is substandard for this price point.  Trash barrels in the corridor overflowed.  The stairwell smelled like a wino's alley and the steps were wet.The facility has dropped in quality and amenities by several notches while the cost has risen nearly 50% from three years ago.  Nevertheless, you would be hard pressed to find more pleasant people to deal with.  They deserve better.More</t>
   </si>
   <si>
+    <t>Mauricio G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r239940097-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1489,6 +1648,9 @@
     <t>The room smells curry the whole concept is not the most business oriented despite the good people at the hotel who work very hard but the concept is mainly for Indian people who love to cook themselves on the hotel and you can smell it. May be it is my mistake that I book this hotel. More</t>
   </si>
   <si>
+    <t>Mark T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r238700170-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1516,6 +1678,9 @@
     <t>The staff is the worst one in particular Angela treated me with in respect filmed the whole thing. sink backed up room flooded with raw sewage .At 4 am hotel personnel tried to open the door when confronted ran away .Have traveled all over the world for work en 25 years have never stayed at such a horrible place .More</t>
   </si>
   <si>
+    <t>Jonathan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r229235097-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1567,6 +1732,9 @@
     <t>Bad service at check-in (they didn't have one of our rooms on file), rooms felt dingy and dark, not clean. It felt like we were stay at a really bad college dorm room.Our friends told us this place has a lot of crime (after we stayed there), so we wished we had made a different choice.More</t>
   </si>
   <si>
+    <t>Robin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r223748612-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1582,6 +1750,9 @@
     <t>You will get good service for what you are paying. The hotel room was so clean and also the bathroom was in good shape too. I can handle if the room is so so,but I don't like if bathroom is not clean and comfortable. Overall I can say it was perfect room for me and my family. For desk staff was very helpful and cheering. Breakfast was fresh and yummy. Wonderful trip.</t>
   </si>
   <si>
+    <t>vahehg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r219246426-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1597,6 +1768,9 @@
     <t xml:space="preserve">Poor management , can't find anyone behind the desk for extended periods of time, under staffed , room not very clean , bring your own shampoo and body was, they don't have any. Certainly not worth staying unless you need a place to crash for just one night and low price is your only criteria. </t>
   </si>
   <si>
+    <t>Tony S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r219150245-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1615,6 +1789,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>melodismelody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r218844434-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1630,6 +1807,9 @@
     <t>Your newest tv commercial almost says it all...not just a kitchen,kitchen...but one with pots n pans,dishes,silverware,glassware, cooking utensils,ice trays,dishwasher soap,KITCHEN. CLEAN,#1BEDS AND GREAT LOCATION,KIND AND FRIENDLY SERVICE.I WILL DEFINITELY BE BACK.</t>
   </si>
   <si>
+    <t>Barbara T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r213302499-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1648,6 +1828,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Elizabeth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r210863920-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1663,6 +1846,9 @@
     <t>Stayed one night. The beds were a little firm, but comfortable. Being an Extended stay, there was a little kitchenette. A filter was attached to the faucet, but it didn't work. In the closet, a shelf was slanted and looked like someone either hung on or tried to put a heavy suitcase on it.Overall, it was okay.</t>
   </si>
   <si>
+    <t>Randi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r210649439-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1681,6 +1867,9 @@
     <t>We checked in and the staff was very nice.  We got into the room... it smelled weird/ stale.  The carpet was absolutely disgusting!  I have a 10 month old baby and could not set her down on the floor to crawl around.  The bath tub was gross as well.  We stayed the first night in utter disgust.  We went to my aunt's house to bathe the kids and relax for the day.  We then requested a change of room... the staff was great and very friendly, and understood how dirty the floors are. We moved into the new room and the floor was "better" but still gross.  My feet were black on the bottoms from walking around... likewise, my poor baby was crawling around on this.  We had no choice but to stay since the room was pre-paid/ non-refundable thru Hotel One, so we dealt with it.  The shower/ bath tub was not cleaned properly and there was still hair on the wall and near the drain.  We bathed at my aunt's house the rest of the week.  VERY DISAPPOINTED.... but the staff was very nice and friendly, sad they work at such a dump!More</t>
   </si>
   <si>
+    <t>pennysan00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r208110565-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1696,6 +1885,9 @@
     <t>I truly believe you get the most bang for your buck if your going to need a longer term hotel stay. The staff here were very friendly and made sure guests were comfortable during their stay. Not to mention this location is literally down the street from the freeway so it made commuting anyway in the o.c. a breeze.</t>
   </si>
   <si>
+    <t>Nancy j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r206897723-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1714,6 +1906,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Angela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r205844016-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1729,6 +1924,9 @@
     <t xml:space="preserve">I enjoy staying here, all the customer service were so friendly. They help as much possible as they can. There wasn't any bugs or cockroach that other people has been stating here. I mean the hotel does need a little bit up to date along with a little fix on bathtub. Overall, I really enjoyed it, nothing to complain about. I would recommend for people who want to stay at an affordable location, this would be the place and location is so quiet. I was surprised that they had a small kitchen in the room, I usually cook breakfast in the morning.  </t>
   </si>
   <si>
+    <t>mymelodismelody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r200896738-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1753,6 +1951,9 @@
     <t>From the begining to the end you will enjoy your stay there.Although I over slept...I was woken up by hearing a sweet spoken maid saying, wake up princess...princess wake up.All the comforts of home and great customer service.I'm disabled and I was also very pleased with the ample parking and the acess to my room. I will defently stay with this hotel again.More</t>
   </si>
   <si>
+    <t>Nicole H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r198176723-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1780,6 +1981,9 @@
     <t>I am still saying here mostly because I am not paying for it. First I would like to say the staff is very nice and helpful. one the other hand the room we got the shelf in the closet and a bar under at lest one of the beds are broken. The towels have black spots on the along with the bedding. The 'wood' floor had marks on it as well as the walls of the shower. Also if you are wanting to stay here with your cats I would say go someplace els they charge 600$ for two and I have never seen and hotel charge that much ever. I am only giving this place a three stars because the staff is very nice and the breakfast is not that bad ether.More</t>
   </si>
   <si>
+    <t>babysnooch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r196072296-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1807,6 +2011,9 @@
     <t>I wanted to take a moment to thank the staff at the Brea Extended Stay America.They were a delight to be greeted by &amp; all my needs were met.This was my first time staying here &amp; I will be back again.Thank you for such a great experience.More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r194681804-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1825,6 +2032,9 @@
     <t>I have stayed at this hotel for a long term stay.  I have to say the staff is top notch, ready to assist you with whatever needs you might have.  Special Kudos go out to Mary Ann, Jaime and Priscilla - all of whom are at the top of their game.  While there are downsides to only having housekeeping once a week, anything you need is always available at the front desk.  The property is very quiet, as are the rooms and any issues are promptly addressed.  The only negatives that I have encountered are that the kitchen could use more cooking utensils and the television lineup leaves nothing to be desired.  I will gladly stay here again if the need arises.More</t>
   </si>
   <si>
+    <t>moneybender</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r194528714-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1843,6 +2053,9 @@
     <t>Was not satisfied at all. You need to do something with the incident happened: giving away our room during stay. What if we were not in the room when it happened? You those other guess access to our belongings. The no housekeeping for stay less than 8 nights is definitely not a good policy. Finally the room and bathroom were dirty. More</t>
   </si>
   <si>
+    <t>Upen g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r193288561-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1870,6 +2083,9 @@
     <t>i stayed here for a few days, and i was pleased with the quality that's offered, kitchen was big enough, nice and clean rooms. felt at home. Staff is nice and friendly and gave me toothpaste that i had left home, i will come back soon.More</t>
   </si>
   <si>
+    <t>Rajesh A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r181747709-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1897,6 +2113,9 @@
     <t>I happen to stay here for 2 weeks as per my company's policy and believe me this place has the worst cleanliness among all the ESA hotels I had even seen. The location for shopping is great but  except that you won't get anything else here. Laundry service is available but no detergent, kitchen is available but not enough utensils for cooking. Everything has to be requested and served only on demand basis. Access cards won't work for no reason and we need to go to front desk and wait patiently for those lazy people to show up. This hotel really sucks ...stay out of this place if possible. Had been a nearby hotel with full kitchen I would have left this place on the second day of my stay.More</t>
   </si>
   <si>
+    <t>jen n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r178395370-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1916,6 +2135,9 @@
   </si>
   <si>
     <t>Make sure not to stay here unless you want your s*#t stolen. &lt;------- That was the main thing wrong, but wait theres more. At about 10:30 i noticed that i could smell cigarette smoke coming from the kitchen area, didnt think too much about it. Half hour later it was strong, put my nose to the wall sockets which are located next to the toaster (4 feet off the ground estimate) theres no doubt thats where it was coming from. DIRTY DIRTY DIRTY  unless you love rollie pollie bugs  then dont stay here. all over the place i dont get it. weird . Again back to whats got me fumed is they stole a very expensive diamond ring from me. before we were checked out. we stayed a week didnt realize our check out day was upon us so they called  to ask us if we wanted to extend our stay since much of our stuff was still there my husband went back but it was too late GONE 2 rings. I can blame myself and i can make myself sick at the thought of someone making off with my diamond ring a gift from my husband. i curse myself for removing it before bed. cant trust anyone these daysMore</t>
+  </si>
+  <si>
+    <t>Allison H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r173081422-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -1951,6 +2173,9 @@
 BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were...My significant other and I stayed a total of 6 nights in this Hotel. Overall the stay was fair. The location of the hotel is great.Not far from the local hot spots including a mall, downtown area, theater, shopping centers, grocery markets, and is within 20-40 minutes from Disneyland, Knotts berry farm, water parks, the beach, aquarium, ect. You will easily find activities to do for all ages within a fair driving distance. Moving on to the actual room itself. My first reaction was that it was on the smaller side. Pictures lead me to believe it would be a bit larger. It was still decent inside for a queen sized room for 2, just not what I expected. There was a bed, night stand, chair, TV, kitchen area, and table/counter in the kitchen for 2. As well as the restroom attached. KITCHEN:  As promised there was a pot, pan, a few plates, mugs, cups, and silverware (although there was only 1 fork). As well as a stove, microwave, and full freezer/fridge set with ice cube trays. there was not an oven, but it is easy to make do with the stove and microwave. BATHROOM: It is extended stay so it does not have the normal hotel essentials like shampoo, conditioner, hairdryer. It did have a bar of soap for the bathtub and a bar for the sink but that was it. Again being extended stay 4 towels were provided at the start and if more towels are needed you must go to the front desk to get more/ dispose of the soiled ones. (not a problem for us, we just reused our towels). INTERNET: The normal provided internet included in the cost of the room actually worked great. I was able to watch episodes of TV online without having to wait ages for it to buffer and was able to play a few video games online as well. if you plan on doing hardcore gaming/uploading photos or items you should probably upgrade to their high speed option which was reasonably priced as well. i believe it was $9.99 for a weeks worth and there were day use amounts as well. All in all their internet was good. TV: The Tv was nice. Flat screen and on a swivel, so you can move it if you want to watch it from different locations in the room/ move it to remove a glare. Typical cable options as well as showtime, discover channel, cartoon network, etc. AIR CONDITIONING: This is my one BIG complaint I have. There is air conditioning as well as heat. And it did work, however it is at a locked temperature of 74 degrees F. It would not go any lower, and having stayed in August when it was 90-100 degrees this was not cool enough. Often times I was sweating in the room. Even if it was at 74 degrees it felt much warmer in the room. It got so warm at night that I brought a fan of my own to help cool it down. If you get hot easily, I would suggest bringing a fan. CLEANLINESS: Not bad. Not great, but not bad. There were no stains, markings, or any worrisome spots that had me on edge. But because it is extended stay you have to pay extra for daily/weekly maid services. If you plan on staying more than a week, I would say this is a must (at least once a week). Dishes are not included in the maid services and any dishes you dirty YOU must clean. BED: It was comfortable enough. A bit on the harder side but not bad. It only had 3 pillows for a queen bed with 2 people though. it was clean, although the blanket in between the comforter and the sheets was on the itchy side. we ended up putting it in the closet and just using the comforter. AMENITIES/SUPPLIES: We mainly used it as a place to sleep and eat. It had all the necessary bedding supplies. sheets, blankets, comforters, and 3 pillows in a queen room. It had a packet of dish soap for any dishes that may have needed  washing. As well as soap for the bathroom. There was also plenty of cabinet space for food as well as a full size fridge/freezer. OVERALL THOUGHTS: It was a decent price considering it had a kitchen, however if you do not need a kitchen for your stay, I would suggest a different hotel. You can find rooms of a much higher quality and comfort level for the same price in the area. Mainly because it is extended stay you should remember that there is no one to refresh towels daily, take our trash, dust, vacuum, make the bed, etc...all that is your responsibility unless you pay extra for maid services. It is something to take into consideration. I was happy with my stay and the hotel.More</t>
   </si>
   <si>
+    <t>superstory</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r170637544-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1978,6 +2203,9 @@
     <t>Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and...Inept, rude, and unethical are the first three things that come to mind. Requested a very reasonable 1 hour late checkout and was told no that 1 hour late would incur a whole day's charge. The room was hot and stuffy which is hard to do in Orange County when it's 68 degrees outside. I can't imagine an "extended stay" in a room like that since 2 nights was bad enough. I left a 2 liter bottle of some very good, expensive craft beer in the refrigerator and realized it about an hour after checkout. We called front desk as soon as we remembered and they said they would look and call back. They did call and said nothing was found...immediate RED FLAG. It's not like it was a phone charger or something that we could have thrown in the luggage and forgot that we grabbed it. It was a cold, 2 liter glass bottle. I went to the hotel and he took me to the room with the house keeping lady. Of course it was no where to be found. I told them I was going to call the cops and the manager's response was, "no problem go ahead and call the cops" with no further efforts to find my property. Cops came and it was obvious that they weren't going to be any help which is why the staff was so easy to have that go ahead and call them attitude. To top it off they double charged my card because they didn't properly match up my prepaid amount via ORBITZ. Horrible staff, horrible management, horrible room, and thieves to boot. NEVER STAY HERE! Disgusting in all areas!More</t>
   </si>
   <si>
+    <t>RFlo2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r169946977-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1996,6 +2224,9 @@
     <t>Booked 3 rooms through Priceline.com and thought we got a great deal - under $40.  Expecting rooms to have a bed and a pullout but staff member said only single bed rooms sold to 3rd party companies like Priceline.  After an hour of waiting for rooms to be "cleaned" and trying to get help from Priceline for predicament staff member gave us the option of paying $15.00 extra per night for the room with the pullout which we did.  The bathroom in my room was gross (mold around the tub) and the room where my sons stayed had a broken bed.  We reported the broken bed and asked to have it changed but the staff member insinuated we may have broken the bed.  Truly a nightmare experience.  Would never stay there again.More</t>
   </si>
   <si>
+    <t>joe d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r166981862-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2014,6 +2245,9 @@
     <t>be wary of this place now, it is under new management. prices are rising, renovations and repairs are completely non existent, it is not dog friendly, they hardly tolerate them anymore and they are terribly understaffed. Keep away from this place, it is not as it once was.More</t>
   </si>
   <si>
+    <t>AbhiChandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r159632402-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2029,6 +2263,9 @@
     <t>Clean room, great customer service, staff was friendly and helpful. Enjoyed the fitness room during my stay. Located close to Brea mall and some good restaurants. The kitchen was really helpful, was able to do some cooking. Would recommend this hotel to my friends and family.</t>
   </si>
   <si>
+    <t>BrianN292</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r156941482-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2056,6 +2293,9 @@
     <t>What a find!  We recently had to move out of our house while we were having some remodeling work done.  There are several choices of places in the general area that have rooms with kitchens.  We were attracted to this one because it is more reasonably priced than the others, is in a safe area near my work and is close to shopping, restaurants and a major freeway.  The staff is friendly and welcoming and the room was excellent.  We had a room with a king size bed.  The small kitchen was very adequate and had good storage space.  The bed was so comfortable that we contacted Serta and ordered one just like it!  Due to the length of our stay, we were able to get a very good rate.More</t>
   </si>
   <si>
+    <t>HH896</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r156835853-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2080,6 +2320,9 @@
     <t>Seriously. Don't stay here. I gave this place a 1 only because I could not give it a 0.The staff was not knowledgeable about the area. The desk clerk couldn't even give me directions to the hotel over the phone. Later on, after having found the local grocery store all by my lonesome, I was chided by the desk clerk upon my return, "You could find the grocery store, but you couldn't find the hotel?" Really, guy? Don't start with me.The room stank. No joke, it smelled like [--]. There was hair all over the tub, leftover Chinese food in the fridge, and a used band-aid stuck to the wall. After making a call to the front desk, the mess that was my room was supposedly cleaned. However, I later found the same used band-aid on one of the bathroom towels that I was about to use to dry my hair. The neighboring guests smoked and hollered until about 2 AM. I was legitimately surprised management didn't hear. The experience was so bad that I ended up staying with some relatives in Corona, CA for the remainder of the trip. Truly horrible.More</t>
   </si>
   <si>
+    <t>Bbsfolife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r153471133-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2104,6 +2347,9 @@
     <t>I might as well have stayed at the dirtiest trailer park.... if that exists. The location is awesome no argument on that. The room smells as you walk in. Not very appealing when u know you will be spending the night there. The smell is musty and old like a dirty vacuum cleaner. The service was good considering that at night that poor person has to do everything. Seems like the 2nd floor is the place to be. I asked for a box of tissue and had to wait for someone to go to the 2nd floor to see if they had any. Then I realized I needed more towels. Got to the lobby to find it empty with a stupid sign saying they will be right back.  10 min later the Person appears to tell me that they have to go to the 2nd floor to see if they have clean towels?!?!?! You are running a business how do you not have clean towels?! So I have to wait again!  Don't get me wrong though the front desk person was very willing to help and I appreciate that very much!! The service was a little above average but the stinky dingy room, cleanliness of the premises was questionable. I may recommend but with lots of caution!! More</t>
   </si>
   <si>
+    <t>scan76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r153069849-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2131,6 +2377,9 @@
     <t>Our room was infested with cockroaches.  I found at least a dozen over a three day stay.  Management seemed indifferent to the problem.  Will never stay here again and would recommend the same to anyone else.More</t>
   </si>
   <si>
+    <t>GaryV33146</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r152537501-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2155,6 +2404,9 @@
     <t>This hotel is a rip off. The hotel was missing bedding when we checked in and the problem was not corrected during the stay. Would not recommend this hotel if you are a person who needs things to be atleast decent for your stay.More</t>
   </si>
   <si>
+    <t>Starfir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150743040-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2179,6 +2431,9 @@
     <t>This is such a great place , it's like a mini studio, they even provide pots &amp; pans to cook in and plates/utensils. They could improve the Grab &amp; Go bfst options, but, soo many restaurants around the location so no biggy. Cable is provided but could offer a few more movie channels. Staff was very friendly and helpful. Luv this place, stood for a great deal! :)More</t>
   </si>
   <si>
+    <t>Aruneil S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150631123-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2206,6 +2461,9 @@
     <t>everything was fine and good, great value freindly staff,very clean rooms .it was close to restaurant centrally located. manager was very friendly and helpfull. it is close to the freeway.close to the world famous former president nixion library. close to theme parks and easy excess to freeway trip to hollywood and san diego.More</t>
   </si>
   <si>
+    <t>Dave0369</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r150539302-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2233,6 +2491,9 @@
     <t>I have stayed at this hotel many of times.  They are very professional and friendly.  Every time I go there I am welcomed with smiles and respect.  The rooms are always nice and squared away.  I have no complaints of this hotel.  If I had family and friends come into town I would highly recommend it to them.  Thank you for the respect and a place for me to lay my head down and relax in a comfortable enviroment. DMMore</t>
   </si>
   <si>
+    <t>Giraldolucy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r147639378-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2255,6 +2516,9 @@
   </si>
   <si>
     <t>The carpet was okay. The pull out bed was comfortable. The king sized bed squeaked too much. The bathtub felt weird to stand on, it was squishy. The kitchen faucet did not move, so that was horrible in terms of washing big dishes. The cable was nice. I like the Snapped series. The free breakfast in the lobby saved me time in the morning, I liked that.More</t>
+  </si>
+  <si>
+    <t>iNa_MeAnA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r145752017-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -2286,6 +2550,9 @@
 Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I...1st of all, I work for the DoubleTree by Hilton, so I know first hand how exceptional customer service is suppose to be given and how to strive to meet guest's needs no matter what the request may be to keep guests satisfied throughout their stay. I know what it takes to earn customer satisfaction and loyalty. I saw that this hotel was rated a 1 star through Priceline, but I had no other choice at the price I paid and since it was opaque reservation that I couldn't cancel, transfer, change, or get a refund on. However, I like to review hotels a chance based on my own experience rather than other guests' since everyone has different expectations.Janice was pleasant to deal with at check-in. I asked for another blanket, but was told there weren't any. My mom asked a lady at the front desk for more coffee and was only given 1, and she wasn't pleasant at all. On another occasion, my mom asked Jaime for coffee and he was about to hand her decaf w/o ever confirming her preference or how many. My mom said she prefers regular, but all he could offer were words that he doesn't have any. He didn't bother to try locating more elsewhere. My mom had requested for clean towels in exchange for our dirty ones with a housekeeper who was extremely rude and seemed like an extremely unhappy individual. I used the laundry facility, and one of the washers started leaking water out the back. The A/C doesn't cool the room too well, just made the sound of it being on. This property has so much potential because of the amenities it has to offer, but it cannot thrive with the type of staff they have operating this place.More</t>
   </si>
   <si>
+    <t>fluis17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r143883249-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2313,6 +2580,9 @@
     <t>This is the worse hotel I've stayed in my life! The room smells like dog poops, it has stains all over the place. Even though the carpets are brown with black they look nasty dirty. They don't provide daily cleaning and I don't think they ever clean the rooms, they only make the bed when a guest leaves and that's it. My bed had hairs (from someone else) on the pillows. You can hear the dogs barking in the next room, the steps on the top floor and the air conditioned systems are super loud. I would not recommend this hotel under any circumstance. It's really nasty! No restaurant, no shop, nothing included but a dirty room.More</t>
   </si>
   <si>
+    <t>Kingsgirl27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r132174325-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2337,6 +2607,9 @@
     <t>Extended Stay is like our second home.  Jaime, who works at the front desk is always very helpful and takes good care of us.  Whenever we see him to check into our room, he always has a smile on his face and ready to cater our needs.  He's pretty awesome!!! Businesses need more guys like him.  The newly renovated hotel is awesome.  It's always spotless. There's a fridge, stove, microwave, utensils, coffee maker, and sink.  Feels like you're at home.  It's reasonably priced and a very comfortable stay.  More</t>
   </si>
   <si>
+    <t>Melanie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131864366-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2358,6 +2631,9 @@
     <t>Several things made our visit terrible: First, the hotel oversold its rooms. We checked in and instead of our King with sofa sleeper, we had to divide our family into two rooms. Second, I kept finding other people's hair all over the room. Nothing skeeves me out like other people's hair. The last straw was when I went to dry my coffee mug and there was a long, black hair on the dish towel. Third, we were overcharged for the privilege of using the second room that we would not have needed in the first place if they hadn't oversold the hotel. I was happy to find that type of hotel at the rate we got because we were in town for a tournament. We are also Disney AP holders and the hotel is not so far from the park as to make a weekend out of it. Unfortunately, we won't be using this hotel again. Despite the friendly staff and free WiFi, I can't justify staying again.More</t>
   </si>
   <si>
+    <t>Grace T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131765899-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2379,6 +2655,9 @@
     <t>I've stayed here 3 times within the last month &amp; a half and so far my experience was always pleasant!! What more can you ask for low rate (considering there's a kitchenette, complimentary b-fast &amp; internet although the internet was a lil slow at times). They have a great staff (very courteous and friendly). Check in process was also very prompt &amp; rooms are always clean. You're always going to have those people who are never satisified and will do anything to get a free night, UNFORTUNATELY no matter what hotel you stay at whether it be the Hilton (esp in this economy) and I have experienced other guests yell at the poor staff, my advice is to just suck it up and continue to do what you all do and keep up the good work!!!More</t>
   </si>
   <si>
+    <t>Arlene B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r131201198-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2395,6 +2674,9 @@
   </si>
   <si>
     <t>The new look for Extended Stay America is incredible. Free Wi-Fi, coffee in the morning, upgraded rooms. I have stayed many times at various Extended Stay Americas, and it has always been pleasant, but even more so now!I do want to compliment Jaime at the front desk in Brea. He is so professional, sweet and accommodating. He always has a smile and a kind word for his guests. He is an asset to the Company.Thank you, Arlene B.More</t>
+  </si>
+  <si>
+    <t>TabzMarz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d217223-r130305892-Extended_Stay_America_Orange_County_Brea-Brea_California.html</t>
@@ -2923,43 +3205,47 @@
       <c r="A2" t="n">
         <v>30268</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2971,56 +3257,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>30268</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -3042,56 +3332,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>30268</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>33557</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3103,56 +3397,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>30268</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146594</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3174,56 +3472,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>30268</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146595</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -3245,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>30268</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146596</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3316,47 +3622,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>30268</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -3373,56 +3683,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>30268</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3440,56 +3754,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>30268</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146599</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3511,56 +3829,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>30268</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146600</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3572,56 +3894,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>30268</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>358</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3637,56 +3963,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>30268</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3708,56 +4038,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>30268</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3779,56 +4113,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>30268</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146601</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3850,56 +4188,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>30268</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146602</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3921,56 +4263,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>30268</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146603</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3992,56 +4338,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>30268</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146604</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4053,56 +4403,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>30268</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146605</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -4124,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>30268</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146606</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4191,56 +4549,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>30268</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4262,56 +4624,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>30268</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146608</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -4333,56 +4699,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>30268</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146609</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -4404,56 +4774,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>30268</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146610</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4469,56 +4843,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>30268</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>13294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4530,56 +4908,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>30268</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>23357</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4597,56 +4979,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>30268</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>39428</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4658,56 +5044,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>30268</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146611</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4725,56 +5115,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>30268</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146612</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4786,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>30268</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146613</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4851,56 +5249,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30268</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>51007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4916,56 +5318,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30268</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146614</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4983,56 +5389,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Y32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>30268</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146615</v>
+      </c>
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="J33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -5050,56 +5460,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>30268</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146616</v>
+      </c>
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5117,56 +5531,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="X34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="Y34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>30268</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>33685</v>
+      </c>
+      <c r="C35" t="s">
+        <v>362</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5178,56 +5596,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="X35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="Y35" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>30268</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146617</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5239,56 +5661,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="X36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="Y36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>30268</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146618</v>
+      </c>
+      <c r="C37" t="s">
+        <v>379</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5304,56 +5730,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="X37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="Y37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>30268</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146619</v>
+      </c>
+      <c r="C38" t="s">
+        <v>389</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="K38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="L38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5369,56 +5799,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="X38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="Y38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>30268</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146620</v>
+      </c>
+      <c r="C39" t="s">
+        <v>399</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5430,56 +5864,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="X39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="Y39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>30268</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>788</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="J40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="K40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="L40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5493,50 +5931,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>30268</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146621</v>
+      </c>
+      <c r="C41" t="s">
+        <v>415</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="J41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="K41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="L41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5554,50 +5996,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>30268</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>70814</v>
+      </c>
+      <c r="C42" t="s">
+        <v>423</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="J42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="K42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="L42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5617,50 +6063,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>30268</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2449</v>
+      </c>
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5680,50 +6130,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>30268</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5743,50 +6197,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>30268</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146622</v>
+      </c>
+      <c r="C45" t="s">
+        <v>444</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="J45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="K45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="L45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5806,50 +6264,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>30268</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146623</v>
+      </c>
+      <c r="C46" t="s">
+        <v>452</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="O46" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5863,50 +6325,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>30268</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146624</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5920,50 +6386,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>30268</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>32838</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="J48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5981,50 +6451,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>30268</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146625</v>
+      </c>
+      <c r="C49" t="s">
+        <v>471</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="J49" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="K49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="L49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="O49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6042,56 +6516,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="X49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>30268</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146626</v>
+      </c>
+      <c r="C50" t="s">
+        <v>481</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6107,56 +6585,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>30268</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146627</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6172,56 +6654,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="X51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>30268</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>79254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6239,56 +6725,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="X52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="Y52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>30268</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146628</v>
+      </c>
+      <c r="C53" t="s">
+        <v>509</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="J53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="K53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="L53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6306,56 +6796,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="X53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="Y53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>30268</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C54" t="s">
+        <v>519</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6367,56 +6861,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="X54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="Y54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>30268</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>32317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>528</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="K55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="L55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6432,47 +6930,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="X55" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="Y55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>30268</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>34742</v>
+      </c>
+      <c r="C56" t="s">
+        <v>538</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="J56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="K56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="L56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -6499,56 +7001,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="X56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="Y56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>30268</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>437</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="J57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="K57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="L57" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6564,56 +7070,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="X57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="Y57" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>30268</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>556</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="J58" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="K58" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="L58" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6633,41 +7143,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>30268</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>47087</v>
+      </c>
+      <c r="C59" t="s">
+        <v>562</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="J59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="K59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="L59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
@@ -6686,50 +7200,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>30268</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>13558</v>
+      </c>
+      <c r="C60" t="s">
+        <v>568</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="J60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="K60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="L60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6749,41 +7267,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>30268</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146629</v>
+      </c>
+      <c r="C61" t="s">
+        <v>575</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="J61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="K61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="L61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6812,50 +7334,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>30268</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>11994</v>
+      </c>
+      <c r="C62" t="s">
+        <v>581</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="J62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="K62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="L62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6879,50 +7405,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>30268</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C63" t="s">
+        <v>588</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="J63" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="K63" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="L63" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="O63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6936,50 +7466,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>30268</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146630</v>
+      </c>
+      <c r="C64" t="s">
+        <v>594</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="J64" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="K64" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="L64" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -7003,41 +7537,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>30268</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146631</v>
+      </c>
+      <c r="C65" t="s">
+        <v>601</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="J65" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="K65" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="L65" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7066,50 +7604,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>30268</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146632</v>
+      </c>
+      <c r="C66" t="s">
+        <v>607</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="J66" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="K66" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="L66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="O66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7133,41 +7675,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>30268</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>10872</v>
+      </c>
+      <c r="C67" t="s">
+        <v>614</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="J67" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="K67" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="L67" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -7196,41 +7742,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>30268</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146633</v>
+      </c>
+      <c r="C68" t="s">
+        <v>620</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="J68" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="L68" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7257,56 +7807,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="X68" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="Y68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>30268</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>15568</v>
+      </c>
+      <c r="C69" t="s">
+        <v>629</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="J69" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="K69" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="L69" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7328,56 +7882,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="X69" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="Y69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>30268</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146634</v>
+      </c>
+      <c r="C70" t="s">
+        <v>639</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="J70" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="K70" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="L70" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7399,56 +7957,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="X70" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="Y70" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>30268</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>538</v>
+      </c>
+      <c r="C71" t="s">
+        <v>649</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="J71" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="K71" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="L71" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="O71" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7470,47 +8032,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="X71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="Y71" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>30268</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146635</v>
+      </c>
+      <c r="C72" t="s">
+        <v>656</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="J72" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="K72" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="L72" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -7537,56 +8103,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="X72" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="Y72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>30268</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146636</v>
+      </c>
+      <c r="C73" t="s">
+        <v>663</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="J73" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="K73" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="O73" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7608,56 +8178,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="X73" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="Y73" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>30268</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146637</v>
+      </c>
+      <c r="C74" t="s">
+        <v>673</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="J74" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="L74" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7679,56 +8253,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="X74" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="Y74" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>30268</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146638</v>
+      </c>
+      <c r="C75" t="s">
+        <v>683</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="J75" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="K75" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="L75" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7752,50 +8330,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>30268</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146639</v>
+      </c>
+      <c r="C76" t="s">
+        <v>691</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="J76" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="K76" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="L76" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7819,50 +8401,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>30268</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146640</v>
+      </c>
+      <c r="C77" t="s">
+        <v>699</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="J77" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="K77" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="L77" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="O77" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7884,56 +8470,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="X77" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="Y77" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>30268</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146641</v>
+      </c>
+      <c r="C78" t="s">
+        <v>709</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="J78" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="K78" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="L78" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="O78" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7955,50 +8545,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>30268</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146642</v>
+      </c>
+      <c r="C79" t="s">
+        <v>716</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="J79" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="K79" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="L79" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="O79" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -8020,47 +8614,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="X79" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="Y79" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>30268</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146643</v>
+      </c>
+      <c r="C80" t="s">
+        <v>723</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="J80" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="K80" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="L80" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -8089,50 +8687,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>30268</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146644</v>
+      </c>
+      <c r="C81" t="s">
+        <v>729</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="J81" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="K81" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="L81" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="O81" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8154,56 +8756,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="X81" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="Y81" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>30268</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146645</v>
+      </c>
+      <c r="C82" t="s">
+        <v>739</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="J82" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="K82" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="L82" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="O82" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8225,47 +8831,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="X82" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="Y82" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>30268</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146646</v>
+      </c>
+      <c r="C83" t="s">
+        <v>748</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="J83" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="K83" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="L83" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -8292,56 +8902,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="X83" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="Y83" t="s">
-        <v>675</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>30268</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146647</v>
+      </c>
+      <c r="C84" t="s">
+        <v>757</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="J84" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="K84" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="L84" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="O84" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -8363,56 +8977,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="X84" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="Y84" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>30268</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146648</v>
+      </c>
+      <c r="C85" t="s">
+        <v>767</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="J85" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="K85" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="L85" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="O85" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8434,47 +9052,51 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="X85" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="Y85" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>30268</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146649</v>
+      </c>
+      <c r="C86" t="s">
+        <v>776</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="J86" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="K86" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="L86" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -8501,56 +9123,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="X86" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="Y86" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>30268</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146650</v>
+      </c>
+      <c r="C87" t="s">
+        <v>785</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="J87" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="K87" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="L87" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="O87" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8572,56 +9198,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="X87" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="Y87" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>30268</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146651</v>
+      </c>
+      <c r="C88" t="s">
+        <v>795</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="J88" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="K88" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="L88" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="O88" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8643,47 +9273,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="X88" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="Y88" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>30268</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>146652</v>
+      </c>
+      <c r="C89" t="s">
+        <v>805</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="J89" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="K89" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="L89" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -8710,56 +9344,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="X89" t="s">
-        <v>725</v>
+        <v>812</v>
       </c>
       <c r="Y89" t="s">
-        <v>726</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>30268</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>146653</v>
+      </c>
+      <c r="C90" t="s">
+        <v>814</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="J90" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="K90" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="L90" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="O90" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8781,56 +9419,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="X90" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="Y90" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>30268</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>146654</v>
+      </c>
+      <c r="C91" t="s">
+        <v>824</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="J91" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="K91" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="L91" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8852,47 +9494,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="X91" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="Y91" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>30268</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>146655</v>
+      </c>
+      <c r="C92" t="s">
+        <v>834</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
       <c r="J92" t="s">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="K92" t="s">
-        <v>748</v>
+        <v>838</v>
       </c>
       <c r="L92" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8919,56 +9565,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="X92" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="Y92" t="s">
-        <v>752</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>30268</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>33616</v>
+      </c>
+      <c r="C93" t="s">
+        <v>843</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>753</v>
+        <v>844</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
       <c r="J93" t="s">
-        <v>755</v>
+        <v>846</v>
       </c>
       <c r="K93" t="s">
-        <v>756</v>
+        <v>847</v>
       </c>
       <c r="L93" t="s">
-        <v>757</v>
+        <v>848</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="O93" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8990,56 +9640,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="X93" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="Y93" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>30268</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>29772</v>
+      </c>
+      <c r="C94" t="s">
+        <v>851</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>761</v>
+        <v>853</v>
       </c>
       <c r="J94" t="s">
-        <v>762</v>
+        <v>854</v>
       </c>
       <c r="K94" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="L94" t="s">
-        <v>764</v>
+        <v>856</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -9051,56 +9705,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="X94" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="Y94" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>30268</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>57341</v>
+      </c>
+      <c r="C95" t="s">
+        <v>859</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>767</v>
+        <v>860</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>768</v>
+        <v>861</v>
       </c>
       <c r="J95" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="K95" t="s">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="L95" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="O95" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9122,56 +9780,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="X95" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="Y95" t="s">
-        <v>772</v>
+        <v>865</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>30268</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>146656</v>
+      </c>
+      <c r="C96" t="s">
+        <v>866</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>773</v>
+        <v>867</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>774</v>
+        <v>868</v>
       </c>
       <c r="J96" t="s">
-        <v>775</v>
+        <v>869</v>
       </c>
       <c r="K96" t="s">
-        <v>776</v>
+        <v>870</v>
       </c>
       <c r="L96" t="s">
-        <v>777</v>
+        <v>871</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -9193,13 +9855,13 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>778</v>
+        <v>872</v>
       </c>
       <c r="X96" t="s">
-        <v>779</v>
+        <v>873</v>
       </c>
       <c r="Y96" t="s">
-        <v>780</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_270.xlsx
@@ -3206,7 +3206,7 @@
         <v>30268</v>
       </c>
       <c r="B2" t="n">
-        <v>146592</v>
+        <v>177939</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3271,7 +3271,7 @@
         <v>30268</v>
       </c>
       <c r="B3" t="n">
-        <v>146593</v>
+        <v>177940</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3411,7 +3411,7 @@
         <v>30268</v>
       </c>
       <c r="B5" t="n">
-        <v>146594</v>
+        <v>177941</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3486,7 +3486,7 @@
         <v>30268</v>
       </c>
       <c r="B6" t="n">
-        <v>146595</v>
+        <v>177942</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3561,7 +3561,7 @@
         <v>30268</v>
       </c>
       <c r="B7" t="n">
-        <v>146596</v>
+        <v>177943</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3636,7 +3636,7 @@
         <v>30268</v>
       </c>
       <c r="B8" t="n">
-        <v>146597</v>
+        <v>177944</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3697,7 +3697,7 @@
         <v>30268</v>
       </c>
       <c r="B9" t="n">
-        <v>146598</v>
+        <v>177945</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -3768,7 +3768,7 @@
         <v>30268</v>
       </c>
       <c r="B10" t="n">
-        <v>146599</v>
+        <v>177946</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -3843,7 +3843,7 @@
         <v>30268</v>
       </c>
       <c r="B11" t="n">
-        <v>146600</v>
+        <v>177947</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -4127,7 +4127,7 @@
         <v>30268</v>
       </c>
       <c r="B15" t="n">
-        <v>146601</v>
+        <v>177948</v>
       </c>
       <c r="C15" t="s">
         <v>176</v>
@@ -4202,7 +4202,7 @@
         <v>30268</v>
       </c>
       <c r="B16" t="n">
-        <v>146602</v>
+        <v>177949</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -4277,7 +4277,7 @@
         <v>30268</v>
       </c>
       <c r="B17" t="n">
-        <v>146603</v>
+        <v>177950</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -4352,7 +4352,7 @@
         <v>30268</v>
       </c>
       <c r="B18" t="n">
-        <v>146604</v>
+        <v>177951</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -4417,7 +4417,7 @@
         <v>30268</v>
       </c>
       <c r="B19" t="n">
-        <v>146605</v>
+        <v>177952</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -4492,7 +4492,7 @@
         <v>30268</v>
       </c>
       <c r="B20" t="n">
-        <v>146606</v>
+        <v>177953</v>
       </c>
       <c r="C20" t="s">
         <v>221</v>
@@ -4563,7 +4563,7 @@
         <v>30268</v>
       </c>
       <c r="B21" t="n">
-        <v>146607</v>
+        <v>177954</v>
       </c>
       <c r="C21" t="s">
         <v>230</v>
@@ -4638,7 +4638,7 @@
         <v>30268</v>
       </c>
       <c r="B22" t="n">
-        <v>146608</v>
+        <v>177955</v>
       </c>
       <c r="C22" t="s">
         <v>240</v>
@@ -4713,7 +4713,7 @@
         <v>30268</v>
       </c>
       <c r="B23" t="n">
-        <v>146609</v>
+        <v>177956</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -4788,7 +4788,7 @@
         <v>30268</v>
       </c>
       <c r="B24" t="n">
-        <v>146610</v>
+        <v>177957</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -5058,7 +5058,7 @@
         <v>30268</v>
       </c>
       <c r="B28" t="n">
-        <v>146611</v>
+        <v>177958</v>
       </c>
       <c r="C28" t="s">
         <v>296</v>
@@ -5129,7 +5129,7 @@
         <v>30268</v>
       </c>
       <c r="B29" t="n">
-        <v>146612</v>
+        <v>177959</v>
       </c>
       <c r="C29" t="s">
         <v>306</v>
@@ -5194,7 +5194,7 @@
         <v>30268</v>
       </c>
       <c r="B30" t="n">
-        <v>146613</v>
+        <v>177960</v>
       </c>
       <c r="C30" t="s">
         <v>315</v>
@@ -5332,7 +5332,7 @@
         <v>30268</v>
       </c>
       <c r="B32" t="n">
-        <v>146614</v>
+        <v>177961</v>
       </c>
       <c r="C32" t="s">
         <v>333</v>
@@ -5403,7 +5403,7 @@
         <v>30268</v>
       </c>
       <c r="B33" t="n">
-        <v>146615</v>
+        <v>177962</v>
       </c>
       <c r="C33" t="s">
         <v>343</v>
@@ -5474,7 +5474,7 @@
         <v>30268</v>
       </c>
       <c r="B34" t="n">
-        <v>146616</v>
+        <v>177963</v>
       </c>
       <c r="C34" t="s">
         <v>353</v>
@@ -5610,7 +5610,7 @@
         <v>30268</v>
       </c>
       <c r="B36" t="n">
-        <v>146617</v>
+        <v>177964</v>
       </c>
       <c r="C36" t="s">
         <v>371</v>
@@ -5675,7 +5675,7 @@
         <v>30268</v>
       </c>
       <c r="B37" t="n">
-        <v>146618</v>
+        <v>177965</v>
       </c>
       <c r="C37" t="s">
         <v>379</v>
@@ -5744,7 +5744,7 @@
         <v>30268</v>
       </c>
       <c r="B38" t="n">
-        <v>146619</v>
+        <v>177966</v>
       </c>
       <c r="C38" t="s">
         <v>389</v>
@@ -5813,7 +5813,7 @@
         <v>30268</v>
       </c>
       <c r="B39" t="n">
-        <v>146620</v>
+        <v>177967</v>
       </c>
       <c r="C39" t="s">
         <v>399</v>
@@ -5939,7 +5939,7 @@
         <v>30268</v>
       </c>
       <c r="B41" t="n">
-        <v>146621</v>
+        <v>177968</v>
       </c>
       <c r="C41" t="s">
         <v>415</v>
@@ -6205,7 +6205,7 @@
         <v>30268</v>
       </c>
       <c r="B45" t="n">
-        <v>146622</v>
+        <v>177969</v>
       </c>
       <c r="C45" t="s">
         <v>444</v>
@@ -6272,7 +6272,7 @@
         <v>30268</v>
       </c>
       <c r="B46" t="n">
-        <v>146623</v>
+        <v>177970</v>
       </c>
       <c r="C46" t="s">
         <v>452</v>
@@ -6333,7 +6333,7 @@
         <v>30268</v>
       </c>
       <c r="B47" t="n">
-        <v>146624</v>
+        <v>177971</v>
       </c>
       <c r="C47" t="s">
         <v>458</v>
@@ -6459,7 +6459,7 @@
         <v>30268</v>
       </c>
       <c r="B49" t="n">
-        <v>146625</v>
+        <v>177972</v>
       </c>
       <c r="C49" t="s">
         <v>471</v>
@@ -6530,7 +6530,7 @@
         <v>30268</v>
       </c>
       <c r="B50" t="n">
-        <v>146626</v>
+        <v>177973</v>
       </c>
       <c r="C50" t="s">
         <v>481</v>
@@ -6599,7 +6599,7 @@
         <v>30268</v>
       </c>
       <c r="B51" t="n">
-        <v>146627</v>
+        <v>177974</v>
       </c>
       <c r="C51" t="s">
         <v>490</v>
@@ -6739,7 +6739,7 @@
         <v>30268</v>
       </c>
       <c r="B53" t="n">
-        <v>146628</v>
+        <v>177975</v>
       </c>
       <c r="C53" t="s">
         <v>509</v>
@@ -7275,7 +7275,7 @@
         <v>30268</v>
       </c>
       <c r="B61" t="n">
-        <v>146629</v>
+        <v>177976</v>
       </c>
       <c r="C61" t="s">
         <v>575</v>
@@ -7474,7 +7474,7 @@
         <v>30268</v>
       </c>
       <c r="B64" t="n">
-        <v>146630</v>
+        <v>177977</v>
       </c>
       <c r="C64" t="s">
         <v>594</v>
@@ -7545,7 +7545,7 @@
         <v>30268</v>
       </c>
       <c r="B65" t="n">
-        <v>146631</v>
+        <v>177978</v>
       </c>
       <c r="C65" t="s">
         <v>601</v>
@@ -7612,7 +7612,7 @@
         <v>30268</v>
       </c>
       <c r="B66" t="n">
-        <v>146632</v>
+        <v>177979</v>
       </c>
       <c r="C66" t="s">
         <v>607</v>
@@ -7750,7 +7750,7 @@
         <v>30268</v>
       </c>
       <c r="B68" t="n">
-        <v>146633</v>
+        <v>177980</v>
       </c>
       <c r="C68" t="s">
         <v>620</v>
@@ -7896,7 +7896,7 @@
         <v>30268</v>
       </c>
       <c r="B70" t="n">
-        <v>146634</v>
+        <v>177981</v>
       </c>
       <c r="C70" t="s">
         <v>639</v>
@@ -8046,7 +8046,7 @@
         <v>30268</v>
       </c>
       <c r="B72" t="n">
-        <v>146635</v>
+        <v>177982</v>
       </c>
       <c r="C72" t="s">
         <v>656</v>
@@ -8117,7 +8117,7 @@
         <v>30268</v>
       </c>
       <c r="B73" t="n">
-        <v>146636</v>
+        <v>177983</v>
       </c>
       <c r="C73" t="s">
         <v>663</v>
@@ -8192,7 +8192,7 @@
         <v>30268</v>
       </c>
       <c r="B74" t="n">
-        <v>146637</v>
+        <v>177984</v>
       </c>
       <c r="C74" t="s">
         <v>673</v>
@@ -8267,7 +8267,7 @@
         <v>30268</v>
       </c>
       <c r="B75" t="n">
-        <v>146638</v>
+        <v>177985</v>
       </c>
       <c r="C75" t="s">
         <v>683</v>
@@ -8338,7 +8338,7 @@
         <v>30268</v>
       </c>
       <c r="B76" t="n">
-        <v>146639</v>
+        <v>177986</v>
       </c>
       <c r="C76" t="s">
         <v>691</v>
@@ -8409,7 +8409,7 @@
         <v>30268</v>
       </c>
       <c r="B77" t="n">
-        <v>146640</v>
+        <v>177987</v>
       </c>
       <c r="C77" t="s">
         <v>699</v>
@@ -8484,7 +8484,7 @@
         <v>30268</v>
       </c>
       <c r="B78" t="n">
-        <v>146641</v>
+        <v>177988</v>
       </c>
       <c r="C78" t="s">
         <v>709</v>
@@ -8553,7 +8553,7 @@
         <v>30268</v>
       </c>
       <c r="B79" t="n">
-        <v>146642</v>
+        <v>177989</v>
       </c>
       <c r="C79" t="s">
         <v>716</v>
@@ -8628,7 +8628,7 @@
         <v>30268</v>
       </c>
       <c r="B80" t="n">
-        <v>146643</v>
+        <v>177990</v>
       </c>
       <c r="C80" t="s">
         <v>723</v>
@@ -8695,7 +8695,7 @@
         <v>30268</v>
       </c>
       <c r="B81" t="n">
-        <v>146644</v>
+        <v>177991</v>
       </c>
       <c r="C81" t="s">
         <v>729</v>
@@ -8770,7 +8770,7 @@
         <v>30268</v>
       </c>
       <c r="B82" t="n">
-        <v>146645</v>
+        <v>177992</v>
       </c>
       <c r="C82" t="s">
         <v>739</v>
@@ -8845,7 +8845,7 @@
         <v>30268</v>
       </c>
       <c r="B83" t="n">
-        <v>146646</v>
+        <v>177993</v>
       </c>
       <c r="C83" t="s">
         <v>748</v>
@@ -8916,7 +8916,7 @@
         <v>30268</v>
       </c>
       <c r="B84" t="n">
-        <v>146647</v>
+        <v>177994</v>
       </c>
       <c r="C84" t="s">
         <v>757</v>
@@ -8991,7 +8991,7 @@
         <v>30268</v>
       </c>
       <c r="B85" t="n">
-        <v>146648</v>
+        <v>177995</v>
       </c>
       <c r="C85" t="s">
         <v>767</v>
@@ -9066,7 +9066,7 @@
         <v>30268</v>
       </c>
       <c r="B86" t="n">
-        <v>146649</v>
+        <v>177996</v>
       </c>
       <c r="C86" t="s">
         <v>776</v>
@@ -9137,7 +9137,7 @@
         <v>30268</v>
       </c>
       <c r="B87" t="n">
-        <v>146650</v>
+        <v>177997</v>
       </c>
       <c r="C87" t="s">
         <v>785</v>
@@ -9212,7 +9212,7 @@
         <v>30268</v>
       </c>
       <c r="B88" t="n">
-        <v>146651</v>
+        <v>177998</v>
       </c>
       <c r="C88" t="s">
         <v>795</v>
@@ -9287,7 +9287,7 @@
         <v>30268</v>
       </c>
       <c r="B89" t="n">
-        <v>146652</v>
+        <v>177999</v>
       </c>
       <c r="C89" t="s">
         <v>805</v>
@@ -9358,7 +9358,7 @@
         <v>30268</v>
       </c>
       <c r="B90" t="n">
-        <v>146653</v>
+        <v>178000</v>
       </c>
       <c r="C90" t="s">
         <v>814</v>
@@ -9433,7 +9433,7 @@
         <v>30268</v>
       </c>
       <c r="B91" t="n">
-        <v>146654</v>
+        <v>178001</v>
       </c>
       <c r="C91" t="s">
         <v>824</v>
@@ -9508,7 +9508,7 @@
         <v>30268</v>
       </c>
       <c r="B92" t="n">
-        <v>146655</v>
+        <v>178002</v>
       </c>
       <c r="C92" t="s">
         <v>834</v>
@@ -9794,7 +9794,7 @@
         <v>30268</v>
       </c>
       <c r="B96" t="n">
-        <v>146656</v>
+        <v>178003</v>
       </c>
       <c r="C96" t="s">
         <v>866</v>
